--- a/output02.xlsx
+++ b/output02.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="output02" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="62">
   <si>
     <t>height</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Simulation</t>
+  </si>
+  <si>
+    <t>initial_perc_cover</t>
   </si>
 </sst>
 </file>
@@ -1022,11 +1025,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE65"/>
+  <dimension ref="A1:BF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1039,11 +1042,12 @@
     <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1077,146 +1081,149 @@
       <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" t="s">
-        <v>2</v>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" t="s">
-        <v>10</v>
-      </c>
       <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>29</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>32</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>37</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>38</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>39</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>40</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>41</v>
       </c>
-      <c r="AZ1" t="s">
-        <v>42</v>
-      </c>
       <c r="BA1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB1" t="s">
         <v>43</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>44</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>45</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1242,11 +1249,11 @@
         <v>56</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>IF(AV2&gt;0,"yes","no")</f>
+        <f>IF(AW2&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>IF(R2&gt;0,"yes","no")</f>
+        <f>IF(S2&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -1255,33 +1262,34 @@
       <c r="K2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L2">
-        <v>100</v>
+      <c r="L2" s="1">
+        <f>SUM(Y2:AB2)/(B2*C2)</f>
+        <v>0.02</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
         <v>0.5</v>
       </c>
-      <c r="P2">
-        <v>0.05</v>
-      </c>
       <c r="Q2">
+        <v>0.05</v>
+      </c>
+      <c r="R2">
         <v>25</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.25</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>4</v>
       </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
       <c r="U2">
         <v>2</v>
       </c>
@@ -1304,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="AB2">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC2">
         <v>0.3</v>
@@ -1316,7 +1324,7 @@
         <v>0.3</v>
       </c>
       <c r="AF2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG2">
         <v>0.1</v>
@@ -1328,7 +1336,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ2">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK2">
         <v>42</v>
@@ -1340,7 +1348,7 @@
         <v>42</v>
       </c>
       <c r="AN2">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO2">
         <v>0.04</v>
@@ -1352,7 +1360,7 @@
         <v>0.04</v>
       </c>
       <c r="AR2">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS2">
         <v>0.05</v>
@@ -1364,7 +1372,7 @@
         <v>0.05</v>
       </c>
       <c r="AV2">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW2">
         <v>1E-3</v>
@@ -1388,13 +1396,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE2">
         <v>0</v>
       </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1420,11 +1431,11 @@
         <v>56</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H9" si="3">IF(AV3&gt;0,"yes","no")</f>
+        <f t="shared" ref="H3:H9" si="3">IF(AW3&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>IF(R3&gt;0,"yes","no")</f>
+        <f>IF(S3&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1433,33 +1444,34 @@
       <c r="K3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L3">
-        <v>100</v>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L65" si="4">SUM(Y3:AB3)/(B3*C3)</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
         <v>0.5</v>
       </c>
-      <c r="P3">
-        <v>0.05</v>
-      </c>
       <c r="Q3">
+        <v>0.05</v>
+      </c>
+      <c r="R3">
         <v>25</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.25</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>4</v>
       </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
       <c r="U3">
         <v>2</v>
       </c>
@@ -1482,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="AB3">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC3">
         <v>0.3</v>
@@ -1494,7 +1506,7 @@
         <v>0.3</v>
       </c>
       <c r="AF3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG3">
         <v>0.1</v>
@@ -1506,7 +1518,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ3">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK3">
         <v>42</v>
@@ -1518,7 +1530,7 @@
         <v>42</v>
       </c>
       <c r="AN3">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO3">
         <v>0.04</v>
@@ -1530,7 +1542,7 @@
         <v>0.04</v>
       </c>
       <c r="AR3">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS3">
         <v>0.05</v>
@@ -1542,7 +1554,7 @@
         <v>0.05</v>
       </c>
       <c r="AV3">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW3">
         <v>1E-3</v>
@@ -1566,13 +1578,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE3">
         <v>0</v>
       </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1602,7 +1617,7 @@
         <v>yes</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>IF(R4&gt;0,"yes","no")</f>
+        <f>IF(S4&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1611,33 +1626,34 @@
       <c r="K4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L4">
-        <v>100</v>
+      <c r="L4" s="1">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
         <v>0.5</v>
       </c>
-      <c r="P4">
-        <v>0.05</v>
-      </c>
       <c r="Q4">
+        <v>0.05</v>
+      </c>
+      <c r="R4">
         <v>25</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.25</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>4</v>
       </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
       <c r="U4">
         <v>2</v>
       </c>
@@ -1660,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="AB4">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC4">
         <v>0.3</v>
@@ -1672,7 +1688,7 @@
         <v>0.3</v>
       </c>
       <c r="AF4">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG4">
         <v>0.1</v>
@@ -1684,7 +1700,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ4">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK4">
         <v>42</v>
@@ -1696,7 +1712,7 @@
         <v>42</v>
       </c>
       <c r="AN4">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO4">
         <v>0.04</v>
@@ -1708,7 +1724,7 @@
         <v>0.04</v>
       </c>
       <c r="AR4">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS4">
         <v>0.05</v>
@@ -1720,7 +1736,7 @@
         <v>0.05</v>
       </c>
       <c r="AV4">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW4">
         <v>1E-3</v>
@@ -1744,13 +1760,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE4">
         <v>0</v>
       </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1780,7 +1799,7 @@
         <v>yes</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f t="shared" ref="I5" si="4">IF(R5&gt;0,"yes","no")</f>
+        <f t="shared" ref="I5" si="5">IF(S5&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1789,33 +1808,34 @@
       <c r="K5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L5">
-        <v>100</v>
+      <c r="L5" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
         <v>0.5</v>
       </c>
-      <c r="P5">
-        <v>0.05</v>
-      </c>
       <c r="Q5">
+        <v>0.05</v>
+      </c>
+      <c r="R5">
         <v>25</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.25</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
       <c r="U5">
         <v>2</v>
       </c>
@@ -1838,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="AB5">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC5">
         <v>0.3</v>
@@ -1850,7 +1870,7 @@
         <v>0.3</v>
       </c>
       <c r="AF5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG5">
         <v>0.1</v>
@@ -1862,7 +1882,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ5">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK5">
         <v>42</v>
@@ -1874,7 +1894,7 @@
         <v>42</v>
       </c>
       <c r="AN5">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO5">
         <v>0.04</v>
@@ -1886,7 +1906,7 @@
         <v>0.04</v>
       </c>
       <c r="AR5">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS5">
         <v>0.05</v>
@@ -1898,7 +1918,7 @@
         <v>0.05</v>
       </c>
       <c r="AV5">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW5">
         <v>1E-3</v>
@@ -1922,13 +1942,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE5">
         <v>0</v>
       </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1958,7 +1981,7 @@
         <v>no</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IF(R6&gt;0,"yes","no")</f>
+        <f>IF(S6&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1967,33 +1990,34 @@
       <c r="K6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L6">
-        <v>100</v>
+      <c r="L6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
         <v>0.5</v>
       </c>
-      <c r="P6">
-        <v>0.05</v>
-      </c>
       <c r="Q6">
+        <v>0.05</v>
+      </c>
+      <c r="R6">
         <v>25</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.25</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>4</v>
       </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
       <c r="U6">
         <v>2</v>
       </c>
@@ -2016,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="AB6">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC6">
         <v>0.3</v>
@@ -2028,7 +2052,7 @@
         <v>0.3</v>
       </c>
       <c r="AF6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG6">
         <v>0.1</v>
@@ -2040,7 +2064,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ6">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK6">
         <v>42</v>
@@ -2052,7 +2076,7 @@
         <v>42</v>
       </c>
       <c r="AN6">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO6">
         <v>0.04</v>
@@ -2064,7 +2088,7 @@
         <v>0.04</v>
       </c>
       <c r="AR6">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS6">
         <v>0.05</v>
@@ -2076,7 +2100,7 @@
         <v>0.05</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW6">
         <v>0</v>
@@ -2105,8 +2129,11 @@
       <c r="BE6">
         <v>0</v>
       </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2136,7 +2163,7 @@
         <v>no</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IF(R7&gt;0,"yes","no")</f>
+        <f>IF(S7&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -2145,33 +2172,34 @@
       <c r="K7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L7">
-        <v>100</v>
+      <c r="L7" s="1">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
         <v>0.5</v>
       </c>
-      <c r="P7">
-        <v>0.05</v>
-      </c>
       <c r="Q7">
+        <v>0.05</v>
+      </c>
+      <c r="R7">
         <v>25</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.25</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>4</v>
       </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
       <c r="U7">
         <v>2</v>
       </c>
@@ -2194,7 +2222,7 @@
         <v>2</v>
       </c>
       <c r="AB7">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC7">
         <v>0.3</v>
@@ -2206,7 +2234,7 @@
         <v>0.3</v>
       </c>
       <c r="AF7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG7">
         <v>0.1</v>
@@ -2218,7 +2246,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ7">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK7">
         <v>42</v>
@@ -2230,7 +2258,7 @@
         <v>42</v>
       </c>
       <c r="AN7">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO7">
         <v>0.04</v>
@@ -2242,7 +2270,7 @@
         <v>0.04</v>
       </c>
       <c r="AR7">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS7">
         <v>0.05</v>
@@ -2254,7 +2282,7 @@
         <v>0.05</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW7">
         <v>0</v>
@@ -2283,8 +2311,11 @@
       <c r="BE7">
         <v>0</v>
       </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2314,7 +2345,7 @@
         <v>no</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IF(R8&gt;0,"yes","no")</f>
+        <f>IF(S8&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -2323,33 +2354,34 @@
       <c r="K8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L8">
-        <v>100</v>
+      <c r="L8" s="1">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
         <v>0.5</v>
       </c>
-      <c r="P8">
-        <v>0.05</v>
-      </c>
       <c r="Q8">
+        <v>0.05</v>
+      </c>
+      <c r="R8">
         <v>25</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.25</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>4</v>
       </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
       <c r="U8">
         <v>2</v>
       </c>
@@ -2372,7 +2404,7 @@
         <v>2</v>
       </c>
       <c r="AB8">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC8">
         <v>0.3</v>
@@ -2384,7 +2416,7 @@
         <v>0.3</v>
       </c>
       <c r="AF8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG8">
         <v>0.1</v>
@@ -2396,7 +2428,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ8">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK8">
         <v>42</v>
@@ -2408,7 +2440,7 @@
         <v>42</v>
       </c>
       <c r="AN8">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO8">
         <v>0.04</v>
@@ -2420,7 +2452,7 @@
         <v>0.04</v>
       </c>
       <c r="AR8">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS8">
         <v>0.05</v>
@@ -2432,7 +2464,7 @@
         <v>0.05</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW8">
         <v>0</v>
@@ -2461,8 +2493,11 @@
       <c r="BE8">
         <v>0</v>
       </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2492,7 +2527,7 @@
         <v>no</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f t="shared" ref="I9" si="5">IF(R9&gt;0,"yes","no")</f>
+        <f t="shared" ref="I9" si="6">IF(S9&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -2501,33 +2536,34 @@
       <c r="K9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L9">
-        <v>100</v>
+      <c r="L9" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
         <v>0.5</v>
       </c>
-      <c r="P9">
-        <v>0.05</v>
-      </c>
       <c r="Q9">
+        <v>0.05</v>
+      </c>
+      <c r="R9">
         <v>25</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.25</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>4</v>
       </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
       <c r="U9">
         <v>2</v>
       </c>
@@ -2550,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="AB9">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC9">
         <v>0.3</v>
@@ -2562,7 +2598,7 @@
         <v>0.3</v>
       </c>
       <c r="AF9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG9">
         <v>0.1</v>
@@ -2574,7 +2610,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ9">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK9">
         <v>42</v>
@@ -2586,7 +2622,7 @@
         <v>42</v>
       </c>
       <c r="AN9">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO9">
         <v>0.04</v>
@@ -2598,7 +2634,7 @@
         <v>0.04</v>
       </c>
       <c r="AR9">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS9">
         <v>0.05</v>
@@ -2610,7 +2646,7 @@
         <v>0.05</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW9">
         <v>0</v>
@@ -2639,8 +2675,11 @@
       <c r="BE9">
         <v>0</v>
       </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2666,11 +2705,11 @@
         <v>56</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>IF(AV10&gt;0,"yes","no")</f>
+        <f>IF(AW10&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IF(R10&gt;0,"yes","no")</f>
+        <f>IF(S10&gt;0,"yes","no")</f>
         <v>no</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -2679,33 +2718,34 @@
       <c r="K10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L10">
-        <v>100</v>
+      <c r="L10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
         <v>0.5</v>
       </c>
-      <c r="P10">
-        <v>0.05</v>
-      </c>
       <c r="Q10">
+        <v>0.05</v>
+      </c>
+      <c r="R10">
         <v>25</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>4</v>
       </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
       <c r="U10">
         <v>2</v>
       </c>
@@ -2728,7 +2768,7 @@
         <v>2</v>
       </c>
       <c r="AB10">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC10">
         <v>0.3</v>
@@ -2740,7 +2780,7 @@
         <v>0.3</v>
       </c>
       <c r="AF10">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG10">
         <v>0.1</v>
@@ -2752,7 +2792,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ10">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK10">
         <v>42</v>
@@ -2764,7 +2804,7 @@
         <v>42</v>
       </c>
       <c r="AN10">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO10">
         <v>0.04</v>
@@ -2776,7 +2816,7 @@
         <v>0.04</v>
       </c>
       <c r="AR10">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS10">
         <v>0.05</v>
@@ -2788,7 +2828,7 @@
         <v>0.05</v>
       </c>
       <c r="AV10">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW10">
         <v>1E-3</v>
@@ -2812,13 +2852,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE10">
         <v>0</v>
       </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2844,11 +2887,11 @@
         <v>56</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f t="shared" ref="H11:H17" si="6">IF(AV11&gt;0,"yes","no")</f>
+        <f t="shared" ref="H11:H17" si="7">IF(AW11&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f t="shared" ref="I11:I17" si="7">IF(R11&gt;0,"yes","no")</f>
+        <f t="shared" ref="I11:I17" si="8">IF(S11&gt;0,"yes","no")</f>
         <v>no</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -2857,33 +2900,34 @@
       <c r="K11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L11">
-        <v>100</v>
+      <c r="L11" s="1">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
         <v>0.5</v>
       </c>
-      <c r="P11">
-        <v>0.05</v>
-      </c>
       <c r="Q11">
+        <v>0.05</v>
+      </c>
+      <c r="R11">
         <v>25</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>4</v>
       </c>
-      <c r="T11">
-        <v>2</v>
-      </c>
       <c r="U11">
         <v>2</v>
       </c>
@@ -2906,7 +2950,7 @@
         <v>2</v>
       </c>
       <c r="AB11">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC11">
         <v>0.3</v>
@@ -2918,7 +2962,7 @@
         <v>0.3</v>
       </c>
       <c r="AF11">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG11">
         <v>0.1</v>
@@ -2930,7 +2974,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ11">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK11">
         <v>42</v>
@@ -2942,7 +2986,7 @@
         <v>42</v>
       </c>
       <c r="AN11">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO11">
         <v>0.04</v>
@@ -2954,7 +2998,7 @@
         <v>0.04</v>
       </c>
       <c r="AR11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS11">
         <v>0.05</v>
@@ -2966,7 +3010,7 @@
         <v>0.05</v>
       </c>
       <c r="AV11">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW11">
         <v>1E-3</v>
@@ -2990,13 +3034,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE11">
         <v>0</v>
       </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3022,11 +3069,11 @@
         <v>56</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>yes</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>no</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -3035,33 +3082,34 @@
       <c r="K12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L12">
-        <v>100</v>
+      <c r="L12" s="1">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
         <v>0.5</v>
       </c>
-      <c r="P12">
-        <v>0.05</v>
-      </c>
       <c r="Q12">
+        <v>0.05</v>
+      </c>
+      <c r="R12">
         <v>25</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>4</v>
       </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
       <c r="U12">
         <v>2</v>
       </c>
@@ -3084,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="AB12">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC12">
         <v>0.3</v>
@@ -3096,7 +3144,7 @@
         <v>0.3</v>
       </c>
       <c r="AF12">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG12">
         <v>0.1</v>
@@ -3108,7 +3156,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ12">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK12">
         <v>42</v>
@@ -3120,7 +3168,7 @@
         <v>42</v>
       </c>
       <c r="AN12">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO12">
         <v>0.04</v>
@@ -3132,7 +3180,7 @@
         <v>0.04</v>
       </c>
       <c r="AR12">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS12">
         <v>0.05</v>
@@ -3144,7 +3192,7 @@
         <v>0.05</v>
       </c>
       <c r="AV12">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW12">
         <v>1E-3</v>
@@ -3168,13 +3216,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE12">
         <v>0</v>
       </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3200,11 +3251,11 @@
         <v>56</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>yes</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>no</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -3213,33 +3264,34 @@
       <c r="K13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L13">
-        <v>100</v>
+      <c r="L13" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
         <v>0.5</v>
       </c>
-      <c r="P13">
-        <v>0.05</v>
-      </c>
       <c r="Q13">
+        <v>0.05</v>
+      </c>
+      <c r="R13">
         <v>25</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>4</v>
       </c>
-      <c r="T13">
-        <v>2</v>
-      </c>
       <c r="U13">
         <v>2</v>
       </c>
@@ -3262,7 +3314,7 @@
         <v>2</v>
       </c>
       <c r="AB13">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC13">
         <v>0.3</v>
@@ -3274,7 +3326,7 @@
         <v>0.3</v>
       </c>
       <c r="AF13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG13">
         <v>0.1</v>
@@ -3286,7 +3338,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ13">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK13">
         <v>42</v>
@@ -3298,7 +3350,7 @@
         <v>42</v>
       </c>
       <c r="AN13">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO13">
         <v>0.04</v>
@@ -3310,7 +3362,7 @@
         <v>0.04</v>
       </c>
       <c r="AR13">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS13">
         <v>0.05</v>
@@ -3322,7 +3374,7 @@
         <v>0.05</v>
       </c>
       <c r="AV13">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW13">
         <v>1E-3</v>
@@ -3346,13 +3398,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD13">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE13">
         <v>0</v>
       </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3378,46 +3433,47 @@
         <v>56</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>no</v>
-      </c>
-      <c r="I14" s="1" t="str">
         <f t="shared" si="7"/>
         <v>no</v>
       </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>no</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L14">
-        <v>100</v>
+      <c r="L14" s="1">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
         <v>0.5</v>
       </c>
-      <c r="P14">
-        <v>0.05</v>
-      </c>
       <c r="Q14">
+        <v>0.05</v>
+      </c>
+      <c r="R14">
         <v>25</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
       <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>4</v>
       </c>
-      <c r="T14">
-        <v>2</v>
-      </c>
       <c r="U14">
         <v>2</v>
       </c>
@@ -3440,7 +3496,7 @@
         <v>2</v>
       </c>
       <c r="AB14">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC14">
         <v>0.3</v>
@@ -3452,7 +3508,7 @@
         <v>0.3</v>
       </c>
       <c r="AF14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG14">
         <v>0.1</v>
@@ -3464,7 +3520,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ14">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK14">
         <v>42</v>
@@ -3476,7 +3532,7 @@
         <v>42</v>
       </c>
       <c r="AN14">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO14">
         <v>0.04</v>
@@ -3488,7 +3544,7 @@
         <v>0.04</v>
       </c>
       <c r="AR14">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS14">
         <v>0.05</v>
@@ -3500,7 +3556,7 @@
         <v>0.05</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW14">
         <v>0</v>
@@ -3529,8 +3585,11 @@
       <c r="BE14">
         <v>0</v>
       </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3556,46 +3615,47 @@
         <v>56</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>no</v>
-      </c>
-      <c r="I15" s="1" t="str">
         <f t="shared" si="7"/>
         <v>no</v>
       </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>no</v>
+      </c>
       <c r="J15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L15">
-        <v>100</v>
+      <c r="L15" s="1">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
         <v>0.5</v>
       </c>
-      <c r="P15">
-        <v>0.05</v>
-      </c>
       <c r="Q15">
+        <v>0.05</v>
+      </c>
+      <c r="R15">
         <v>25</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>4</v>
       </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
       <c r="U15">
         <v>2</v>
       </c>
@@ -3618,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="AB15">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC15">
         <v>0.3</v>
@@ -3630,7 +3690,7 @@
         <v>0.3</v>
       </c>
       <c r="AF15">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG15">
         <v>0.1</v>
@@ -3642,7 +3702,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ15">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK15">
         <v>42</v>
@@ -3654,7 +3714,7 @@
         <v>42</v>
       </c>
       <c r="AN15">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO15">
         <v>0.04</v>
@@ -3666,7 +3726,7 @@
         <v>0.04</v>
       </c>
       <c r="AR15">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS15">
         <v>0.05</v>
@@ -3678,7 +3738,7 @@
         <v>0.05</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW15">
         <v>0</v>
@@ -3707,8 +3767,11 @@
       <c r="BE15">
         <v>0</v>
       </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3734,46 +3797,47 @@
         <v>56</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>no</v>
-      </c>
-      <c r="I16" s="1" t="str">
         <f t="shared" si="7"/>
         <v>no</v>
       </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>no</v>
+      </c>
       <c r="J16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L16">
-        <v>100</v>
+      <c r="L16" s="1">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
         <v>0.5</v>
       </c>
-      <c r="P16">
-        <v>0.05</v>
-      </c>
       <c r="Q16">
+        <v>0.05</v>
+      </c>
+      <c r="R16">
         <v>25</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <v>4</v>
       </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
       <c r="U16">
         <v>2</v>
       </c>
@@ -3796,7 +3860,7 @@
         <v>2</v>
       </c>
       <c r="AB16">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC16">
         <v>0.3</v>
@@ -3808,7 +3872,7 @@
         <v>0.3</v>
       </c>
       <c r="AF16">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG16">
         <v>0.1</v>
@@ -3820,7 +3884,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ16">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK16">
         <v>42</v>
@@ -3832,7 +3896,7 @@
         <v>42</v>
       </c>
       <c r="AN16">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO16">
         <v>0.04</v>
@@ -3844,7 +3908,7 @@
         <v>0.04</v>
       </c>
       <c r="AR16">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS16">
         <v>0.05</v>
@@ -3856,7 +3920,7 @@
         <v>0.05</v>
       </c>
       <c r="AV16">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW16">
         <v>0</v>
@@ -3885,8 +3949,11 @@
       <c r="BE16">
         <v>0</v>
       </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3912,46 +3979,47 @@
         <v>56</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>no</v>
-      </c>
-      <c r="I17" s="1" t="str">
         <f t="shared" si="7"/>
         <v>no</v>
       </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>no</v>
+      </c>
       <c r="J17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L17">
-        <v>100</v>
+      <c r="L17" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
         <v>0.5</v>
       </c>
-      <c r="P17">
-        <v>0.05</v>
-      </c>
       <c r="Q17">
+        <v>0.05</v>
+      </c>
+      <c r="R17">
         <v>25</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <v>4</v>
       </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
       <c r="U17">
         <v>2</v>
       </c>
@@ -3974,7 +4042,7 @@
         <v>2</v>
       </c>
       <c r="AB17">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC17">
         <v>0.3</v>
@@ -3986,7 +4054,7 @@
         <v>0.3</v>
       </c>
       <c r="AF17">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG17">
         <v>0.1</v>
@@ -3998,7 +4066,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ17">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK17">
         <v>42</v>
@@ -4010,7 +4078,7 @@
         <v>42</v>
       </c>
       <c r="AN17">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO17">
         <v>0.04</v>
@@ -4022,7 +4090,7 @@
         <v>0.04</v>
       </c>
       <c r="AR17">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS17">
         <v>0.05</v>
@@ -4034,7 +4102,7 @@
         <v>0.05</v>
       </c>
       <c r="AV17">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW17">
         <v>0</v>
@@ -4063,8 +4131,11 @@
       <c r="BE17">
         <v>0</v>
       </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4090,11 +4161,11 @@
         <v>56</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f>IF(AV18&gt;0,"yes","no")</f>
+        <f>IF(AW18&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f>IF(R18&gt;0,"yes","no")</f>
+        <f>IF(S18&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -4104,32 +4175,33 @@
         <v>58</v>
       </c>
       <c r="L18" s="2">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>0.02</v>
       </c>
       <c r="M18" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N18" s="2">
         <v>10</v>
       </c>
       <c r="O18" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P18" s="2">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R18" s="2">
         <v>25</v>
       </c>
-      <c r="R18" s="2">
+      <c r="S18" s="2">
         <v>0.25</v>
       </c>
-      <c r="S18" s="2">
+      <c r="T18" s="2">
         <v>4</v>
       </c>
-      <c r="T18" s="2">
-        <v>2</v>
-      </c>
       <c r="U18" s="2">
         <v>2</v>
       </c>
@@ -4152,7 +4224,7 @@
         <v>2</v>
       </c>
       <c r="AB18" s="2">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC18" s="2">
         <v>0.3</v>
@@ -4164,7 +4236,7 @@
         <v>0.3</v>
       </c>
       <c r="AF18" s="2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG18" s="2">
         <v>0.1</v>
@@ -4176,7 +4248,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ18" s="2">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK18" s="2">
         <v>42</v>
@@ -4188,7 +4260,7 @@
         <v>42</v>
       </c>
       <c r="AN18" s="2">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO18" s="2">
         <v>0.04</v>
@@ -4200,7 +4272,7 @@
         <v>0.04</v>
       </c>
       <c r="AR18" s="2">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS18" s="2">
         <v>0.05</v>
@@ -4212,7 +4284,7 @@
         <v>0.05</v>
       </c>
       <c r="AV18" s="2">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW18" s="2">
         <v>1E-3</v>
@@ -4236,13 +4308,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD18" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4268,11 +4343,11 @@
         <v>56</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f t="shared" ref="H19:H25" si="8">IF(AV19&gt;0,"yes","no")</f>
+        <f t="shared" ref="H19:H25" si="9">IF(AW19&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF(R19&gt;0,"yes","no")</f>
+        <f>IF(S19&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -4281,33 +4356,34 @@
       <c r="K19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L19">
-        <v>100</v>
+      <c r="L19" s="1">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N19">
         <v>10</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P19">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q19">
+        <v>0.05</v>
+      </c>
+      <c r="R19">
         <v>25</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.25</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>4</v>
       </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
       <c r="U19">
         <v>2</v>
       </c>
@@ -4330,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="AB19">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC19">
         <v>0.3</v>
@@ -4342,7 +4418,7 @@
         <v>0.3</v>
       </c>
       <c r="AF19">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG19">
         <v>0.1</v>
@@ -4354,7 +4430,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ19">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK19">
         <v>42</v>
@@ -4366,7 +4442,7 @@
         <v>42</v>
       </c>
       <c r="AN19">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO19">
         <v>0.04</v>
@@ -4378,7 +4454,7 @@
         <v>0.04</v>
       </c>
       <c r="AR19">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS19">
         <v>0.05</v>
@@ -4390,7 +4466,7 @@
         <v>0.05</v>
       </c>
       <c r="AV19">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW19">
         <v>1E-3</v>
@@ -4414,13 +4490,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD19">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE19">
         <v>0</v>
       </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4446,11 +4525,11 @@
         <v>56</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IF(R20&gt;0,"yes","no")</f>
+        <f>IF(S20&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -4459,33 +4538,34 @@
       <c r="K20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L20">
-        <v>100</v>
+      <c r="L20" s="1">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N20">
         <v>10</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P20">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q20">
+        <v>0.05</v>
+      </c>
+      <c r="R20">
         <v>25</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.25</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>4</v>
       </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
       <c r="U20">
         <v>2</v>
       </c>
@@ -4508,7 +4588,7 @@
         <v>2</v>
       </c>
       <c r="AB20">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC20">
         <v>0.3</v>
@@ -4520,7 +4600,7 @@
         <v>0.3</v>
       </c>
       <c r="AF20">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG20">
         <v>0.1</v>
@@ -4532,7 +4612,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ20">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK20">
         <v>42</v>
@@ -4544,7 +4624,7 @@
         <v>42</v>
       </c>
       <c r="AN20">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO20">
         <v>0.04</v>
@@ -4556,7 +4636,7 @@
         <v>0.04</v>
       </c>
       <c r="AR20">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS20">
         <v>0.05</v>
@@ -4568,7 +4648,7 @@
         <v>0.05</v>
       </c>
       <c r="AV20">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW20">
         <v>1E-3</v>
@@ -4592,13 +4672,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD20">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE20">
         <v>0</v>
       </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4624,11 +4707,11 @@
         <v>56</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>yes</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f t="shared" ref="I21" si="9">IF(R21&gt;0,"yes","no")</f>
+        <f t="shared" ref="I21" si="10">IF(S21&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -4637,33 +4720,34 @@
       <c r="K21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L21">
-        <v>100</v>
+      <c r="L21" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N21">
         <v>10</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P21">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q21">
+        <v>0.05</v>
+      </c>
+      <c r="R21">
         <v>25</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.25</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>4</v>
       </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
       <c r="U21">
         <v>2</v>
       </c>
@@ -4686,7 +4770,7 @@
         <v>2</v>
       </c>
       <c r="AB21">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC21">
         <v>0.3</v>
@@ -4698,7 +4782,7 @@
         <v>0.3</v>
       </c>
       <c r="AF21">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG21">
         <v>0.1</v>
@@ -4710,7 +4794,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ21">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK21">
         <v>42</v>
@@ -4722,7 +4806,7 @@
         <v>42</v>
       </c>
       <c r="AN21">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO21">
         <v>0.04</v>
@@ -4734,7 +4818,7 @@
         <v>0.04</v>
       </c>
       <c r="AR21">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS21">
         <v>0.05</v>
@@ -4746,7 +4830,7 @@
         <v>0.05</v>
       </c>
       <c r="AV21">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW21">
         <v>1E-3</v>
@@ -4770,13 +4854,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD21">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE21">
         <v>0</v>
       </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4802,11 +4889,11 @@
         <v>56</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>no</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>IF(R22&gt;0,"yes","no")</f>
+        <f>IF(S22&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -4815,33 +4902,34 @@
       <c r="K22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L22">
-        <v>100</v>
+      <c r="L22" s="1">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N22">
         <v>10</v>
       </c>
       <c r="O22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P22">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q22">
+        <v>0.05</v>
+      </c>
+      <c r="R22">
         <v>25</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.25</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>4</v>
       </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
       <c r="U22">
         <v>2</v>
       </c>
@@ -4864,7 +4952,7 @@
         <v>2</v>
       </c>
       <c r="AB22">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC22">
         <v>0.3</v>
@@ -4876,7 +4964,7 @@
         <v>0.3</v>
       </c>
       <c r="AF22">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG22">
         <v>0.1</v>
@@ -4888,7 +4976,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ22">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK22">
         <v>42</v>
@@ -4900,7 +4988,7 @@
         <v>42</v>
       </c>
       <c r="AN22">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO22">
         <v>0.04</v>
@@ -4912,7 +5000,7 @@
         <v>0.04</v>
       </c>
       <c r="AR22">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS22">
         <v>0.05</v>
@@ -4924,7 +5012,7 @@
         <v>0.05</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW22">
         <v>0</v>
@@ -4953,8 +5041,11 @@
       <c r="BE22">
         <v>0</v>
       </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4980,11 +5071,11 @@
         <v>56</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>no</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>IF(R23&gt;0,"yes","no")</f>
+        <f>IF(S23&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -4993,33 +5084,34 @@
       <c r="K23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L23">
-        <v>100</v>
+      <c r="L23" s="1">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N23">
         <v>10</v>
       </c>
       <c r="O23">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P23">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q23">
+        <v>0.05</v>
+      </c>
+      <c r="R23">
         <v>25</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.25</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>4</v>
       </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
       <c r="U23">
         <v>2</v>
       </c>
@@ -5042,7 +5134,7 @@
         <v>2</v>
       </c>
       <c r="AB23">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC23">
         <v>0.3</v>
@@ -5054,7 +5146,7 @@
         <v>0.3</v>
       </c>
       <c r="AF23">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG23">
         <v>0.1</v>
@@ -5066,7 +5158,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ23">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK23">
         <v>42</v>
@@ -5078,7 +5170,7 @@
         <v>42</v>
       </c>
       <c r="AN23">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO23">
         <v>0.04</v>
@@ -5090,7 +5182,7 @@
         <v>0.04</v>
       </c>
       <c r="AR23">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS23">
         <v>0.05</v>
@@ -5102,7 +5194,7 @@
         <v>0.05</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW23">
         <v>0</v>
@@ -5131,8 +5223,11 @@
       <c r="BE23">
         <v>0</v>
       </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5158,11 +5253,11 @@
         <v>56</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>no</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f>IF(R24&gt;0,"yes","no")</f>
+        <f>IF(S24&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -5171,33 +5266,34 @@
       <c r="K24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L24">
-        <v>100</v>
+      <c r="L24" s="1">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N24">
         <v>10</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P24">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q24">
+        <v>0.05</v>
+      </c>
+      <c r="R24">
         <v>25</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.25</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>4</v>
       </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
       <c r="U24">
         <v>2</v>
       </c>
@@ -5220,7 +5316,7 @@
         <v>2</v>
       </c>
       <c r="AB24">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC24">
         <v>0.3</v>
@@ -5232,7 +5328,7 @@
         <v>0.3</v>
       </c>
       <c r="AF24">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG24">
         <v>0.1</v>
@@ -5244,7 +5340,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ24">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK24">
         <v>42</v>
@@ -5256,7 +5352,7 @@
         <v>42</v>
       </c>
       <c r="AN24">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO24">
         <v>0.04</v>
@@ -5268,7 +5364,7 @@
         <v>0.04</v>
       </c>
       <c r="AR24">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS24">
         <v>0.05</v>
@@ -5280,7 +5376,7 @@
         <v>0.05</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW24">
         <v>0</v>
@@ -5309,8 +5405,11 @@
       <c r="BE24">
         <v>0</v>
       </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5336,11 +5435,11 @@
         <v>56</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>no</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f t="shared" ref="I25" si="10">IF(R25&gt;0,"yes","no")</f>
+        <f t="shared" ref="I25" si="11">IF(S25&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -5349,33 +5448,34 @@
       <c r="K25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L25">
-        <v>100</v>
+      <c r="L25" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N25">
         <v>10</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P25">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q25">
+        <v>0.05</v>
+      </c>
+      <c r="R25">
         <v>25</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.25</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>4</v>
       </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
       <c r="U25">
         <v>2</v>
       </c>
@@ -5398,7 +5498,7 @@
         <v>2</v>
       </c>
       <c r="AB25">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC25">
         <v>0.3</v>
@@ -5410,7 +5510,7 @@
         <v>0.3</v>
       </c>
       <c r="AF25">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG25">
         <v>0.1</v>
@@ -5422,7 +5522,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ25">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK25">
         <v>42</v>
@@ -5434,7 +5534,7 @@
         <v>42</v>
       </c>
       <c r="AN25">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO25">
         <v>0.04</v>
@@ -5446,7 +5546,7 @@
         <v>0.04</v>
       </c>
       <c r="AR25">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS25">
         <v>0.05</v>
@@ -5458,7 +5558,7 @@
         <v>0.05</v>
       </c>
       <c r="AV25">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW25">
         <v>0</v>
@@ -5487,8 +5587,11 @@
       <c r="BE25">
         <v>0</v>
       </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5514,11 +5617,11 @@
         <v>56</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f>IF(AV26&gt;0,"yes","no")</f>
+        <f>IF(AW26&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f>IF(R26&gt;0,"yes","no")</f>
+        <f>IF(S26&gt;0,"yes","no")</f>
         <v>no</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -5527,33 +5630,34 @@
       <c r="K26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L26">
-        <v>100</v>
+      <c r="L26" s="1">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
       </c>
       <c r="M26">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N26">
         <v>10</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P26">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q26">
+        <v>0.05</v>
+      </c>
+      <c r="R26">
         <v>25</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
       <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <v>4</v>
       </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
       <c r="U26">
         <v>2</v>
       </c>
@@ -5576,7 +5680,7 @@
         <v>2</v>
       </c>
       <c r="AB26">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC26">
         <v>0.3</v>
@@ -5588,7 +5692,7 @@
         <v>0.3</v>
       </c>
       <c r="AF26">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG26">
         <v>0.1</v>
@@ -5600,7 +5704,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ26">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK26">
         <v>42</v>
@@ -5612,7 +5716,7 @@
         <v>42</v>
       </c>
       <c r="AN26">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO26">
         <v>0.04</v>
@@ -5624,7 +5728,7 @@
         <v>0.04</v>
       </c>
       <c r="AR26">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS26">
         <v>0.05</v>
@@ -5636,7 +5740,7 @@
         <v>0.05</v>
       </c>
       <c r="AV26">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW26">
         <v>1E-3</v>
@@ -5660,13 +5764,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD26">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE26">
         <v>0</v>
       </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5692,11 +5799,11 @@
         <v>56</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f t="shared" ref="H27:H33" si="11">IF(AV27&gt;0,"yes","no")</f>
+        <f t="shared" ref="H27:H33" si="12">IF(AW27&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f t="shared" ref="I27:I33" si="12">IF(R27&gt;0,"yes","no")</f>
+        <f t="shared" ref="I27:I33" si="13">IF(S27&gt;0,"yes","no")</f>
         <v>no</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -5705,33 +5812,34 @@
       <c r="K27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L27">
-        <v>100</v>
+      <c r="L27" s="1">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N27">
         <v>10</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P27">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q27">
+        <v>0.05</v>
+      </c>
+      <c r="R27">
         <v>25</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>4</v>
       </c>
-      <c r="T27">
-        <v>2</v>
-      </c>
       <c r="U27">
         <v>2</v>
       </c>
@@ -5754,7 +5862,7 @@
         <v>2</v>
       </c>
       <c r="AB27">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC27">
         <v>0.3</v>
@@ -5766,7 +5874,7 @@
         <v>0.3</v>
       </c>
       <c r="AF27">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG27">
         <v>0.1</v>
@@ -5778,7 +5886,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ27">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK27">
         <v>42</v>
@@ -5790,7 +5898,7 @@
         <v>42</v>
       </c>
       <c r="AN27">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO27">
         <v>0.04</v>
@@ -5802,7 +5910,7 @@
         <v>0.04</v>
       </c>
       <c r="AR27">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS27">
         <v>0.05</v>
@@ -5814,7 +5922,7 @@
         <v>0.05</v>
       </c>
       <c r="AV27">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW27">
         <v>1E-3</v>
@@ -5838,13 +5946,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD27">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE27">
         <v>0</v>
       </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5870,11 +5981,11 @@
         <v>56</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>yes</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>no</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -5883,33 +5994,34 @@
       <c r="K28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L28">
-        <v>100</v>
+      <c r="L28" s="1">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N28">
         <v>10</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P28">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q28">
+        <v>0.05</v>
+      </c>
+      <c r="R28">
         <v>25</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <v>4</v>
       </c>
-      <c r="T28">
-        <v>2</v>
-      </c>
       <c r="U28">
         <v>2</v>
       </c>
@@ -5932,7 +6044,7 @@
         <v>2</v>
       </c>
       <c r="AB28">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC28">
         <v>0.3</v>
@@ -5944,7 +6056,7 @@
         <v>0.3</v>
       </c>
       <c r="AF28">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG28">
         <v>0.1</v>
@@ -5956,7 +6068,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ28">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK28">
         <v>42</v>
@@ -5968,7 +6080,7 @@
         <v>42</v>
       </c>
       <c r="AN28">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO28">
         <v>0.04</v>
@@ -5980,7 +6092,7 @@
         <v>0.04</v>
       </c>
       <c r="AR28">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS28">
         <v>0.05</v>
@@ -5992,7 +6104,7 @@
         <v>0.05</v>
       </c>
       <c r="AV28">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW28">
         <v>1E-3</v>
@@ -6016,13 +6128,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD28">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE28">
         <v>0</v>
       </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6048,11 +6163,11 @@
         <v>56</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>yes</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>no</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -6061,33 +6176,34 @@
       <c r="K29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L29">
-        <v>100</v>
+      <c r="L29" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N29">
         <v>10</v>
       </c>
       <c r="O29">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P29">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q29">
+        <v>0.05</v>
+      </c>
+      <c r="R29">
         <v>25</v>
       </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>4</v>
       </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
       <c r="U29">
         <v>2</v>
       </c>
@@ -6110,7 +6226,7 @@
         <v>2</v>
       </c>
       <c r="AB29">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC29">
         <v>0.3</v>
@@ -6122,7 +6238,7 @@
         <v>0.3</v>
       </c>
       <c r="AF29">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG29">
         <v>0.1</v>
@@ -6134,7 +6250,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ29">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK29">
         <v>42</v>
@@ -6146,7 +6262,7 @@
         <v>42</v>
       </c>
       <c r="AN29">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO29">
         <v>0.04</v>
@@ -6158,7 +6274,7 @@
         <v>0.04</v>
       </c>
       <c r="AR29">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS29">
         <v>0.05</v>
@@ -6170,7 +6286,7 @@
         <v>0.05</v>
       </c>
       <c r="AV29">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW29">
         <v>1E-3</v>
@@ -6194,13 +6310,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD29">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE29">
         <v>0</v>
       </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6226,46 +6345,47 @@
         <v>56</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>no</v>
-      </c>
-      <c r="I30" s="1" t="str">
         <f t="shared" si="12"/>
         <v>no</v>
       </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>no</v>
+      </c>
       <c r="J30" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L30">
-        <v>100</v>
+      <c r="L30" s="1">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N30">
         <v>10</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P30">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q30">
+        <v>0.05</v>
+      </c>
+      <c r="R30">
         <v>25</v>
       </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
       <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
         <v>4</v>
       </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
       <c r="U30">
         <v>2</v>
       </c>
@@ -6288,7 +6408,7 @@
         <v>2</v>
       </c>
       <c r="AB30">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC30">
         <v>0.3</v>
@@ -6300,7 +6420,7 @@
         <v>0.3</v>
       </c>
       <c r="AF30">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG30">
         <v>0.1</v>
@@ -6312,7 +6432,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ30">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK30">
         <v>42</v>
@@ -6324,7 +6444,7 @@
         <v>42</v>
       </c>
       <c r="AN30">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO30">
         <v>0.04</v>
@@ -6336,7 +6456,7 @@
         <v>0.04</v>
       </c>
       <c r="AR30">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS30">
         <v>0.05</v>
@@ -6348,7 +6468,7 @@
         <v>0.05</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW30">
         <v>0</v>
@@ -6377,8 +6497,11 @@
       <c r="BE30">
         <v>0</v>
       </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6404,46 +6527,47 @@
         <v>56</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>no</v>
-      </c>
-      <c r="I31" s="1" t="str">
         <f t="shared" si="12"/>
         <v>no</v>
       </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>no</v>
+      </c>
       <c r="J31" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L31">
-        <v>100</v>
+      <c r="L31" s="1">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N31">
         <v>10</v>
       </c>
       <c r="O31">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P31">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q31">
+        <v>0.05</v>
+      </c>
+      <c r="R31">
         <v>25</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
       <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
         <v>4</v>
       </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
       <c r="U31">
         <v>2</v>
       </c>
@@ -6466,7 +6590,7 @@
         <v>2</v>
       </c>
       <c r="AB31">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC31">
         <v>0.3</v>
@@ -6478,7 +6602,7 @@
         <v>0.3</v>
       </c>
       <c r="AF31">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG31">
         <v>0.1</v>
@@ -6490,7 +6614,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ31">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK31">
         <v>42</v>
@@ -6502,7 +6626,7 @@
         <v>42</v>
       </c>
       <c r="AN31">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO31">
         <v>0.04</v>
@@ -6514,7 +6638,7 @@
         <v>0.04</v>
       </c>
       <c r="AR31">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS31">
         <v>0.05</v>
@@ -6526,7 +6650,7 @@
         <v>0.05</v>
       </c>
       <c r="AV31">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW31">
         <v>0</v>
@@ -6555,8 +6679,11 @@
       <c r="BE31">
         <v>0</v>
       </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6582,46 +6709,47 @@
         <v>56</v>
       </c>
       <c r="H32" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>no</v>
-      </c>
-      <c r="I32" s="1" t="str">
         <f t="shared" si="12"/>
         <v>no</v>
       </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>no</v>
+      </c>
       <c r="J32" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L32">
-        <v>100</v>
+      <c r="L32" s="1">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N32">
         <v>10</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P32">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q32">
+        <v>0.05</v>
+      </c>
+      <c r="R32">
         <v>25</v>
       </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
       <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
         <v>4</v>
       </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
       <c r="U32">
         <v>2</v>
       </c>
@@ -6644,7 +6772,7 @@
         <v>2</v>
       </c>
       <c r="AB32">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC32">
         <v>0.3</v>
@@ -6656,7 +6784,7 @@
         <v>0.3</v>
       </c>
       <c r="AF32">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG32">
         <v>0.1</v>
@@ -6668,7 +6796,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ32">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK32">
         <v>42</v>
@@ -6680,7 +6808,7 @@
         <v>42</v>
       </c>
       <c r="AN32">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO32">
         <v>0.04</v>
@@ -6692,7 +6820,7 @@
         <v>0.04</v>
       </c>
       <c r="AR32">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS32">
         <v>0.05</v>
@@ -6704,7 +6832,7 @@
         <v>0.05</v>
       </c>
       <c r="AV32">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW32">
         <v>0</v>
@@ -6733,8 +6861,11 @@
       <c r="BE32">
         <v>0</v>
       </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6760,46 +6891,47 @@
         <v>56</v>
       </c>
       <c r="H33" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>no</v>
-      </c>
-      <c r="I33" s="1" t="str">
         <f t="shared" si="12"/>
         <v>no</v>
       </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>no</v>
+      </c>
       <c r="J33" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L33">
-        <v>100</v>
+      <c r="L33" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N33">
         <v>10</v>
       </c>
       <c r="O33">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P33">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q33">
+        <v>0.05</v>
+      </c>
+      <c r="R33">
         <v>25</v>
       </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
       <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <v>4</v>
       </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
       <c r="U33">
         <v>2</v>
       </c>
@@ -6822,7 +6954,7 @@
         <v>2</v>
       </c>
       <c r="AB33">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="AC33">
         <v>0.3</v>
@@ -6834,7 +6966,7 @@
         <v>0.3</v>
       </c>
       <c r="AF33">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG33">
         <v>0.1</v>
@@ -6846,7 +6978,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ33">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK33">
         <v>42</v>
@@ -6858,7 +6990,7 @@
         <v>42</v>
       </c>
       <c r="AN33">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO33">
         <v>0.04</v>
@@ -6870,7 +7002,7 @@
         <v>0.04</v>
       </c>
       <c r="AR33">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS33">
         <v>0.05</v>
@@ -6882,7 +7014,7 @@
         <v>0.05</v>
       </c>
       <c r="AV33">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW33">
         <v>0</v>
@@ -6911,8 +7043,11 @@
       <c r="BE33">
         <v>0</v>
       </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -6938,11 +7073,11 @@
         <v>56</v>
       </c>
       <c r="H34" s="2" t="str">
-        <f>IF(AV34&gt;0,"yes","no")</f>
+        <f>IF(AW34&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="I34" s="2" t="str">
-        <f>IF(R34&gt;0,"yes","no")</f>
+        <f>IF(S34&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -6952,32 +7087,33 @@
         <v>59</v>
       </c>
       <c r="L34" s="2">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="M34" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N34" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O34" s="2">
+        <v>2</v>
+      </c>
+      <c r="P34" s="2">
         <v>0.5</v>
       </c>
-      <c r="P34" s="2">
-        <v>0.05</v>
-      </c>
       <c r="Q34" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R34" s="2">
         <v>25</v>
       </c>
-      <c r="R34" s="2">
+      <c r="S34" s="2">
         <v>0.25</v>
       </c>
-      <c r="S34" s="2">
+      <c r="T34" s="2">
         <v>4</v>
       </c>
-      <c r="T34" s="2">
-        <v>10</v>
-      </c>
       <c r="U34" s="2">
         <v>10</v>
       </c>
@@ -6988,7 +7124,7 @@
         <v>10</v>
       </c>
       <c r="X34" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y34" s="2">
         <v>100</v>
@@ -7000,7 +7136,7 @@
         <v>100</v>
       </c>
       <c r="AB34" s="2">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC34" s="2">
         <v>0.3</v>
@@ -7012,7 +7148,7 @@
         <v>0.3</v>
       </c>
       <c r="AF34" s="2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG34" s="2">
         <v>0.1</v>
@@ -7024,7 +7160,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ34" s="2">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK34" s="2">
         <v>42</v>
@@ -7036,7 +7172,7 @@
         <v>42</v>
       </c>
       <c r="AN34" s="2">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO34" s="2">
         <v>0.04</v>
@@ -7048,7 +7184,7 @@
         <v>0.04</v>
       </c>
       <c r="AR34" s="2">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS34" s="2">
         <v>0.05</v>
@@ -7060,7 +7196,7 @@
         <v>0.05</v>
       </c>
       <c r="AV34" s="2">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW34" s="2">
         <v>1E-3</v>
@@ -7084,13 +7220,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD34" s="2">
-        <v>0.3</v>
+        <v>1E-3</v>
       </c>
       <c r="BE34" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="BF34" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7116,11 +7255,11 @@
         <v>56</v>
       </c>
       <c r="H35" s="1" t="str">
-        <f t="shared" ref="H35:H41" si="13">IF(AV35&gt;0,"yes","no")</f>
+        <f t="shared" ref="H35:H41" si="14">IF(AW35&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f>IF(R35&gt;0,"yes","no")</f>
+        <f>IF(S35&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -7129,33 +7268,34 @@
       <c r="K35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L35">
-        <v>100</v>
+      <c r="L35" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
         <v>0.5</v>
       </c>
-      <c r="P35">
-        <v>0.05</v>
-      </c>
       <c r="Q35">
+        <v>0.05</v>
+      </c>
+      <c r="R35">
         <v>25</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>0.25</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>4</v>
       </c>
-      <c r="T35">
-        <v>10</v>
-      </c>
       <c r="U35">
         <v>10</v>
       </c>
@@ -7166,7 +7306,7 @@
         <v>10</v>
       </c>
       <c r="X35">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y35">
         <v>100</v>
@@ -7178,7 +7318,7 @@
         <v>100</v>
       </c>
       <c r="AB35">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC35">
         <v>0.3</v>
@@ -7190,7 +7330,7 @@
         <v>0.3</v>
       </c>
       <c r="AF35">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG35">
         <v>0.1</v>
@@ -7202,7 +7342,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ35">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK35">
         <v>42</v>
@@ -7214,7 +7354,7 @@
         <v>42</v>
       </c>
       <c r="AN35">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO35">
         <v>0.04</v>
@@ -7226,7 +7366,7 @@
         <v>0.04</v>
       </c>
       <c r="AR35">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS35">
         <v>0.05</v>
@@ -7238,7 +7378,7 @@
         <v>0.05</v>
       </c>
       <c r="AV35">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW35">
         <v>1E-3</v>
@@ -7262,13 +7402,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE35">
         <v>0</v>
       </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7294,11 +7437,11 @@
         <v>56</v>
       </c>
       <c r="H36" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>yes</v>
       </c>
       <c r="I36" s="1" t="str">
-        <f>IF(R36&gt;0,"yes","no")</f>
+        <f>IF(S36&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -7307,33 +7450,34 @@
       <c r="K36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L36">
-        <v>100</v>
+      <c r="L36" s="1">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O36">
+        <v>2</v>
+      </c>
+      <c r="P36">
         <v>0.5</v>
       </c>
-      <c r="P36">
-        <v>0.05</v>
-      </c>
       <c r="Q36">
+        <v>0.05</v>
+      </c>
+      <c r="R36">
         <v>25</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>0.25</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>4</v>
       </c>
-      <c r="T36">
-        <v>10</v>
-      </c>
       <c r="U36">
         <v>10</v>
       </c>
@@ -7344,7 +7488,7 @@
         <v>10</v>
       </c>
       <c r="X36">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y36">
         <v>100</v>
@@ -7356,7 +7500,7 @@
         <v>100</v>
       </c>
       <c r="AB36">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC36">
         <v>0.3</v>
@@ -7368,7 +7512,7 @@
         <v>0.3</v>
       </c>
       <c r="AF36">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG36">
         <v>0.1</v>
@@ -7380,7 +7524,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ36">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK36">
         <v>42</v>
@@ -7392,7 +7536,7 @@
         <v>42</v>
       </c>
       <c r="AN36">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO36">
         <v>0.04</v>
@@ -7404,7 +7548,7 @@
         <v>0.04</v>
       </c>
       <c r="AR36">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS36">
         <v>0.05</v>
@@ -7416,7 +7560,7 @@
         <v>0.05</v>
       </c>
       <c r="AV36">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW36">
         <v>1E-3</v>
@@ -7440,13 +7584,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE36">
         <v>0</v>
       </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7472,11 +7619,11 @@
         <v>56</v>
       </c>
       <c r="H37" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>yes</v>
       </c>
       <c r="I37" s="1" t="str">
-        <f t="shared" ref="I37" si="14">IF(R37&gt;0,"yes","no")</f>
+        <f t="shared" ref="I37" si="15">IF(S37&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -7485,33 +7632,34 @@
       <c r="K37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L37">
-        <v>100</v>
+      <c r="L37" s="1">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N37">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37">
         <v>0.5</v>
       </c>
-      <c r="P37">
-        <v>0.05</v>
-      </c>
       <c r="Q37">
+        <v>0.05</v>
+      </c>
+      <c r="R37">
         <v>25</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>0.25</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>4</v>
       </c>
-      <c r="T37">
-        <v>10</v>
-      </c>
       <c r="U37">
         <v>10</v>
       </c>
@@ -7522,7 +7670,7 @@
         <v>10</v>
       </c>
       <c r="X37">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y37">
         <v>100</v>
@@ -7534,7 +7682,7 @@
         <v>100</v>
       </c>
       <c r="AB37">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC37">
         <v>0.3</v>
@@ -7546,7 +7694,7 @@
         <v>0.3</v>
       </c>
       <c r="AF37">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG37">
         <v>0.1</v>
@@ -7558,7 +7706,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ37">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK37">
         <v>42</v>
@@ -7570,7 +7718,7 @@
         <v>42</v>
       </c>
       <c r="AN37">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO37">
         <v>0.04</v>
@@ -7582,7 +7730,7 @@
         <v>0.04</v>
       </c>
       <c r="AR37">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS37">
         <v>0.05</v>
@@ -7594,7 +7742,7 @@
         <v>0.05</v>
       </c>
       <c r="AV37">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW37">
         <v>1E-3</v>
@@ -7618,13 +7766,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD37">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE37">
         <v>0</v>
       </c>
+      <c r="BF37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -7650,11 +7801,11 @@
         <v>56</v>
       </c>
       <c r="H38" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>no</v>
       </c>
       <c r="I38" s="2" t="str">
-        <f>IF(R38&gt;0,"yes","no")</f>
+        <f>IF(S38&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J38" s="2" t="s">
@@ -7664,32 +7815,33 @@
         <v>59</v>
       </c>
       <c r="L38" s="2">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="M38" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N38" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O38" s="2">
+        <v>2</v>
+      </c>
+      <c r="P38" s="2">
         <v>0.5</v>
       </c>
-      <c r="P38" s="2">
-        <v>0.05</v>
-      </c>
       <c r="Q38" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R38" s="2">
         <v>25</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>0.25</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>4</v>
       </c>
-      <c r="T38" s="2">
-        <v>10</v>
-      </c>
       <c r="U38" s="2">
         <v>10</v>
       </c>
@@ -7700,7 +7852,7 @@
         <v>10</v>
       </c>
       <c r="X38" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y38" s="2">
         <v>100</v>
@@ -7712,7 +7864,7 @@
         <v>100</v>
       </c>
       <c r="AB38" s="2">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC38" s="2">
         <v>0.3</v>
@@ -7724,7 +7876,7 @@
         <v>0.3</v>
       </c>
       <c r="AF38" s="2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG38" s="2">
         <v>0.1</v>
@@ -7736,7 +7888,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ38" s="2">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK38" s="2">
         <v>42</v>
@@ -7748,7 +7900,7 @@
         <v>42</v>
       </c>
       <c r="AN38" s="2">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO38" s="2">
         <v>0.04</v>
@@ -7760,7 +7912,7 @@
         <v>0.04</v>
       </c>
       <c r="AR38" s="2">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS38" s="2">
         <v>0.05</v>
@@ -7772,7 +7924,7 @@
         <v>0.05</v>
       </c>
       <c r="AV38" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW38" s="2">
         <v>0</v>
@@ -7796,13 +7948,16 @@
         <v>0</v>
       </c>
       <c r="BD38" s="2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BE38" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="BF38" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7828,11 +7983,11 @@
         <v>56</v>
       </c>
       <c r="H39" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>no</v>
       </c>
       <c r="I39" s="1" t="str">
-        <f>IF(R39&gt;0,"yes","no")</f>
+        <f>IF(S39&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -7841,33 +7996,34 @@
       <c r="K39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L39">
-        <v>100</v>
+      <c r="L39" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
       </c>
       <c r="M39">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39">
         <v>0.5</v>
       </c>
-      <c r="P39">
-        <v>0.05</v>
-      </c>
       <c r="Q39">
+        <v>0.05</v>
+      </c>
+      <c r="R39">
         <v>25</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>0.25</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>4</v>
       </c>
-      <c r="T39">
-        <v>10</v>
-      </c>
       <c r="U39">
         <v>10</v>
       </c>
@@ -7878,7 +8034,7 @@
         <v>10</v>
       </c>
       <c r="X39">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y39">
         <v>100</v>
@@ -7890,7 +8046,7 @@
         <v>100</v>
       </c>
       <c r="AB39">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC39">
         <v>0.3</v>
@@ -7902,7 +8058,7 @@
         <v>0.3</v>
       </c>
       <c r="AF39">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG39">
         <v>0.1</v>
@@ -7914,7 +8070,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ39">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK39">
         <v>42</v>
@@ -7926,7 +8082,7 @@
         <v>42</v>
       </c>
       <c r="AN39">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO39">
         <v>0.04</v>
@@ -7938,7 +8094,7 @@
         <v>0.04</v>
       </c>
       <c r="AR39">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS39">
         <v>0.05</v>
@@ -7950,7 +8106,7 @@
         <v>0.05</v>
       </c>
       <c r="AV39">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW39">
         <v>0</v>
@@ -7979,8 +8135,11 @@
       <c r="BE39">
         <v>0</v>
       </c>
+      <c r="BF39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8006,11 +8165,11 @@
         <v>56</v>
       </c>
       <c r="H40" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>no</v>
       </c>
       <c r="I40" s="1" t="str">
-        <f>IF(R40&gt;0,"yes","no")</f>
+        <f>IF(S40&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -8019,33 +8178,34 @@
       <c r="K40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L40">
-        <v>100</v>
+      <c r="L40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40">
         <v>0.5</v>
       </c>
-      <c r="P40">
-        <v>0.05</v>
-      </c>
       <c r="Q40">
+        <v>0.05</v>
+      </c>
+      <c r="R40">
         <v>25</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>0.25</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>4</v>
       </c>
-      <c r="T40">
-        <v>10</v>
-      </c>
       <c r="U40">
         <v>10</v>
       </c>
@@ -8056,7 +8216,7 @@
         <v>10</v>
       </c>
       <c r="X40">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y40">
         <v>100</v>
@@ -8068,7 +8228,7 @@
         <v>100</v>
       </c>
       <c r="AB40">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC40">
         <v>0.3</v>
@@ -8080,7 +8240,7 @@
         <v>0.3</v>
       </c>
       <c r="AF40">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG40">
         <v>0.1</v>
@@ -8092,7 +8252,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ40">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK40">
         <v>42</v>
@@ -8104,7 +8264,7 @@
         <v>42</v>
       </c>
       <c r="AN40">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO40">
         <v>0.04</v>
@@ -8116,7 +8276,7 @@
         <v>0.04</v>
       </c>
       <c r="AR40">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS40">
         <v>0.05</v>
@@ -8128,7 +8288,7 @@
         <v>0.05</v>
       </c>
       <c r="AV40">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW40">
         <v>0</v>
@@ -8157,8 +8317,11 @@
       <c r="BE40">
         <v>0</v>
       </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8184,11 +8347,11 @@
         <v>56</v>
       </c>
       <c r="H41" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>no</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f t="shared" ref="I41" si="15">IF(R41&gt;0,"yes","no")</f>
+        <f t="shared" ref="I41" si="16">IF(S41&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -8197,33 +8360,34 @@
       <c r="K41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L41">
-        <v>100</v>
+      <c r="L41" s="1">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41">
         <v>0.5</v>
       </c>
-      <c r="P41">
-        <v>0.05</v>
-      </c>
       <c r="Q41">
+        <v>0.05</v>
+      </c>
+      <c r="R41">
         <v>25</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>0.25</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>4</v>
       </c>
-      <c r="T41">
-        <v>10</v>
-      </c>
       <c r="U41">
         <v>10</v>
       </c>
@@ -8234,7 +8398,7 @@
         <v>10</v>
       </c>
       <c r="X41">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y41">
         <v>100</v>
@@ -8246,7 +8410,7 @@
         <v>100</v>
       </c>
       <c r="AB41">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC41">
         <v>0.3</v>
@@ -8258,7 +8422,7 @@
         <v>0.3</v>
       </c>
       <c r="AF41">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG41">
         <v>0.1</v>
@@ -8270,7 +8434,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ41">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK41">
         <v>42</v>
@@ -8282,7 +8446,7 @@
         <v>42</v>
       </c>
       <c r="AN41">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO41">
         <v>0.04</v>
@@ -8294,7 +8458,7 @@
         <v>0.04</v>
       </c>
       <c r="AR41">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS41">
         <v>0.05</v>
@@ -8306,7 +8470,7 @@
         <v>0.05</v>
       </c>
       <c r="AV41">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW41">
         <v>0</v>
@@ -8335,8 +8499,11 @@
       <c r="BE41">
         <v>0</v>
       </c>
+      <c r="BF41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8362,11 +8529,11 @@
         <v>56</v>
       </c>
       <c r="H42" s="1" t="str">
-        <f>IF(AV42&gt;0,"yes","no")</f>
+        <f>IF(AW42&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="I42" s="1" t="str">
-        <f>IF(R42&gt;0,"yes","no")</f>
+        <f>IF(S42&gt;0,"yes","no")</f>
         <v>no</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -8375,33 +8542,34 @@
       <c r="K42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L42">
-        <v>100</v>
+      <c r="L42" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
         <v>0.5</v>
       </c>
-      <c r="P42">
-        <v>0.05</v>
-      </c>
       <c r="Q42">
+        <v>0.05</v>
+      </c>
+      <c r="R42">
         <v>25</v>
       </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
       <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
         <v>4</v>
       </c>
-      <c r="T42">
-        <v>10</v>
-      </c>
       <c r="U42">
         <v>10</v>
       </c>
@@ -8412,7 +8580,7 @@
         <v>10</v>
       </c>
       <c r="X42">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y42">
         <v>100</v>
@@ -8424,7 +8592,7 @@
         <v>100</v>
       </c>
       <c r="AB42">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC42">
         <v>0.3</v>
@@ -8436,7 +8604,7 @@
         <v>0.3</v>
       </c>
       <c r="AF42">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG42">
         <v>0.1</v>
@@ -8448,7 +8616,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ42">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK42">
         <v>42</v>
@@ -8460,7 +8628,7 @@
         <v>42</v>
       </c>
       <c r="AN42">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO42">
         <v>0.04</v>
@@ -8472,7 +8640,7 @@
         <v>0.04</v>
       </c>
       <c r="AR42">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS42">
         <v>0.05</v>
@@ -8484,7 +8652,7 @@
         <v>0.05</v>
       </c>
       <c r="AV42">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW42">
         <v>1E-3</v>
@@ -8508,13 +8676,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD42">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE42">
         <v>0</v>
       </c>
+      <c r="BF42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8540,11 +8711,11 @@
         <v>56</v>
       </c>
       <c r="H43" s="1" t="str">
-        <f t="shared" ref="H43:H49" si="16">IF(AV43&gt;0,"yes","no")</f>
+        <f t="shared" ref="H43:H49" si="17">IF(AW43&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="I43" s="1" t="str">
-        <f t="shared" ref="I43:I49" si="17">IF(R43&gt;0,"yes","no")</f>
+        <f t="shared" ref="I43:I49" si="18">IF(S43&gt;0,"yes","no")</f>
         <v>no</v>
       </c>
       <c r="J43" s="1" t="s">
@@ -8553,33 +8724,34 @@
       <c r="K43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L43">
-        <v>100</v>
+      <c r="L43" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
         <v>0.5</v>
       </c>
-      <c r="P43">
-        <v>0.05</v>
-      </c>
       <c r="Q43">
+        <v>0.05</v>
+      </c>
+      <c r="R43">
         <v>25</v>
       </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
       <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
         <v>4</v>
       </c>
-      <c r="T43">
-        <v>10</v>
-      </c>
       <c r="U43">
         <v>10</v>
       </c>
@@ -8590,7 +8762,7 @@
         <v>10</v>
       </c>
       <c r="X43">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y43">
         <v>100</v>
@@ -8602,7 +8774,7 @@
         <v>100</v>
       </c>
       <c r="AB43">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC43">
         <v>0.3</v>
@@ -8614,7 +8786,7 @@
         <v>0.3</v>
       </c>
       <c r="AF43">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG43">
         <v>0.1</v>
@@ -8626,7 +8798,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ43">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK43">
         <v>42</v>
@@ -8638,7 +8810,7 @@
         <v>42</v>
       </c>
       <c r="AN43">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO43">
         <v>0.04</v>
@@ -8650,7 +8822,7 @@
         <v>0.04</v>
       </c>
       <c r="AR43">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS43">
         <v>0.05</v>
@@ -8662,7 +8834,7 @@
         <v>0.05</v>
       </c>
       <c r="AV43">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW43">
         <v>1E-3</v>
@@ -8686,13 +8858,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD43">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE43">
         <v>0</v>
       </c>
+      <c r="BF43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8718,11 +8893,11 @@
         <v>56</v>
       </c>
       <c r="H44" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>yes</v>
       </c>
       <c r="I44" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>no</v>
       </c>
       <c r="J44" s="1" t="s">
@@ -8731,33 +8906,34 @@
       <c r="K44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L44">
-        <v>100</v>
+      <c r="L44" s="1">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
       </c>
       <c r="M44">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O44">
+        <v>2</v>
+      </c>
+      <c r="P44">
         <v>0.5</v>
       </c>
-      <c r="P44">
-        <v>0.05</v>
-      </c>
       <c r="Q44">
+        <v>0.05</v>
+      </c>
+      <c r="R44">
         <v>25</v>
       </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
       <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
         <v>4</v>
       </c>
-      <c r="T44">
-        <v>10</v>
-      </c>
       <c r="U44">
         <v>10</v>
       </c>
@@ -8768,7 +8944,7 @@
         <v>10</v>
       </c>
       <c r="X44">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y44">
         <v>100</v>
@@ -8780,7 +8956,7 @@
         <v>100</v>
       </c>
       <c r="AB44">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC44">
         <v>0.3</v>
@@ -8792,7 +8968,7 @@
         <v>0.3</v>
       </c>
       <c r="AF44">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG44">
         <v>0.1</v>
@@ -8804,7 +8980,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ44">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK44">
         <v>42</v>
@@ -8816,7 +8992,7 @@
         <v>42</v>
       </c>
       <c r="AN44">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO44">
         <v>0.04</v>
@@ -8828,7 +9004,7 @@
         <v>0.04</v>
       </c>
       <c r="AR44">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS44">
         <v>0.05</v>
@@ -8840,7 +9016,7 @@
         <v>0.05</v>
       </c>
       <c r="AV44">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW44">
         <v>1E-3</v>
@@ -8864,13 +9040,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD44">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE44">
         <v>0</v>
       </c>
+      <c r="BF44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8896,11 +9075,11 @@
         <v>56</v>
       </c>
       <c r="H45" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>yes</v>
       </c>
       <c r="I45" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>no</v>
       </c>
       <c r="J45" s="1" t="s">
@@ -8909,33 +9088,34 @@
       <c r="K45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L45">
-        <v>100</v>
+      <c r="L45" s="1">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
       </c>
       <c r="M45">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
         <v>0.5</v>
       </c>
-      <c r="P45">
-        <v>0.05</v>
-      </c>
       <c r="Q45">
+        <v>0.05</v>
+      </c>
+      <c r="R45">
         <v>25</v>
       </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
       <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
         <v>4</v>
       </c>
-      <c r="T45">
-        <v>10</v>
-      </c>
       <c r="U45">
         <v>10</v>
       </c>
@@ -8946,7 +9126,7 @@
         <v>10</v>
       </c>
       <c r="X45">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y45">
         <v>100</v>
@@ -8958,7 +9138,7 @@
         <v>100</v>
       </c>
       <c r="AB45">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC45">
         <v>0.3</v>
@@ -8970,7 +9150,7 @@
         <v>0.3</v>
       </c>
       <c r="AF45">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG45">
         <v>0.1</v>
@@ -8982,7 +9162,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ45">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK45">
         <v>42</v>
@@ -8994,7 +9174,7 @@
         <v>42</v>
       </c>
       <c r="AN45">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO45">
         <v>0.04</v>
@@ -9006,7 +9186,7 @@
         <v>0.04</v>
       </c>
       <c r="AR45">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS45">
         <v>0.05</v>
@@ -9018,7 +9198,7 @@
         <v>0.05</v>
       </c>
       <c r="AV45">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW45">
         <v>1E-3</v>
@@ -9042,13 +9222,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD45">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE45">
         <v>0</v>
       </c>
+      <c r="BF45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9074,46 +9257,47 @@
         <v>56</v>
       </c>
       <c r="H46" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>no</v>
-      </c>
-      <c r="I46" s="1" t="str">
         <f t="shared" si="17"/>
         <v>no</v>
       </c>
+      <c r="I46" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
       <c r="J46" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L46">
-        <v>100</v>
+      <c r="L46" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46">
         <v>0.5</v>
       </c>
-      <c r="P46">
-        <v>0.05</v>
-      </c>
       <c r="Q46">
+        <v>0.05</v>
+      </c>
+      <c r="R46">
         <v>25</v>
       </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
       <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <v>4</v>
       </c>
-      <c r="T46">
-        <v>10</v>
-      </c>
       <c r="U46">
         <v>10</v>
       </c>
@@ -9124,7 +9308,7 @@
         <v>10</v>
       </c>
       <c r="X46">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y46">
         <v>100</v>
@@ -9136,7 +9320,7 @@
         <v>100</v>
       </c>
       <c r="AB46">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC46">
         <v>0.3</v>
@@ -9148,7 +9332,7 @@
         <v>0.3</v>
       </c>
       <c r="AF46">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG46">
         <v>0.1</v>
@@ -9160,7 +9344,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ46">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK46">
         <v>42</v>
@@ -9172,7 +9356,7 @@
         <v>42</v>
       </c>
       <c r="AN46">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO46">
         <v>0.04</v>
@@ -9184,7 +9368,7 @@
         <v>0.04</v>
       </c>
       <c r="AR46">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS46">
         <v>0.05</v>
@@ -9196,7 +9380,7 @@
         <v>0.05</v>
       </c>
       <c r="AV46">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW46">
         <v>0</v>
@@ -9225,8 +9409,11 @@
       <c r="BE46">
         <v>0</v>
       </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9252,46 +9439,47 @@
         <v>56</v>
       </c>
       <c r="H47" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>no</v>
-      </c>
-      <c r="I47" s="1" t="str">
         <f t="shared" si="17"/>
         <v>no</v>
       </c>
+      <c r="I47" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
       <c r="J47" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L47">
-        <v>100</v>
+      <c r="L47" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
       </c>
       <c r="M47">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47">
         <v>0.5</v>
       </c>
-      <c r="P47">
-        <v>0.05</v>
-      </c>
       <c r="Q47">
+        <v>0.05</v>
+      </c>
+      <c r="R47">
         <v>25</v>
       </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
       <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
         <v>4</v>
       </c>
-      <c r="T47">
-        <v>10</v>
-      </c>
       <c r="U47">
         <v>10</v>
       </c>
@@ -9302,7 +9490,7 @@
         <v>10</v>
       </c>
       <c r="X47">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y47">
         <v>100</v>
@@ -9314,7 +9502,7 @@
         <v>100</v>
       </c>
       <c r="AB47">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC47">
         <v>0.3</v>
@@ -9326,7 +9514,7 @@
         <v>0.3</v>
       </c>
       <c r="AF47">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG47">
         <v>0.1</v>
@@ -9338,7 +9526,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ47">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK47">
         <v>42</v>
@@ -9350,7 +9538,7 @@
         <v>42</v>
       </c>
       <c r="AN47">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO47">
         <v>0.04</v>
@@ -9362,7 +9550,7 @@
         <v>0.04</v>
       </c>
       <c r="AR47">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS47">
         <v>0.05</v>
@@ -9374,7 +9562,7 @@
         <v>0.05</v>
       </c>
       <c r="AV47">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW47">
         <v>0</v>
@@ -9403,8 +9591,11 @@
       <c r="BE47">
         <v>0</v>
       </c>
+      <c r="BF47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9430,46 +9621,47 @@
         <v>56</v>
       </c>
       <c r="H48" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>no</v>
-      </c>
-      <c r="I48" s="1" t="str">
         <f t="shared" si="17"/>
         <v>no</v>
       </c>
+      <c r="I48" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
       <c r="J48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L48">
-        <v>100</v>
+      <c r="L48" s="1">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
       </c>
       <c r="M48">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48">
         <v>0.5</v>
       </c>
-      <c r="P48">
-        <v>0.05</v>
-      </c>
       <c r="Q48">
+        <v>0.05</v>
+      </c>
+      <c r="R48">
         <v>25</v>
       </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
       <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
         <v>4</v>
       </c>
-      <c r="T48">
-        <v>10</v>
-      </c>
       <c r="U48">
         <v>10</v>
       </c>
@@ -9480,7 +9672,7 @@
         <v>10</v>
       </c>
       <c r="X48">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y48">
         <v>100</v>
@@ -9492,7 +9684,7 @@
         <v>100</v>
       </c>
       <c r="AB48">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC48">
         <v>0.3</v>
@@ -9504,7 +9696,7 @@
         <v>0.3</v>
       </c>
       <c r="AF48">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG48">
         <v>0.1</v>
@@ -9516,7 +9708,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ48">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK48">
         <v>42</v>
@@ -9528,7 +9720,7 @@
         <v>42</v>
       </c>
       <c r="AN48">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO48">
         <v>0.04</v>
@@ -9540,7 +9732,7 @@
         <v>0.04</v>
       </c>
       <c r="AR48">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS48">
         <v>0.05</v>
@@ -9552,7 +9744,7 @@
         <v>0.05</v>
       </c>
       <c r="AV48">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW48">
         <v>0</v>
@@ -9581,8 +9773,11 @@
       <c r="BE48">
         <v>0</v>
       </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9608,46 +9803,47 @@
         <v>56</v>
       </c>
       <c r="H49" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>no</v>
-      </c>
-      <c r="I49" s="1" t="str">
         <f t="shared" si="17"/>
         <v>no</v>
       </c>
+      <c r="I49" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>no</v>
+      </c>
       <c r="J49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L49">
-        <v>100</v>
+      <c r="L49" s="1">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
       </c>
       <c r="M49">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="P49">
         <v>0.5</v>
       </c>
-      <c r="P49">
-        <v>0.05</v>
-      </c>
       <c r="Q49">
+        <v>0.05</v>
+      </c>
+      <c r="R49">
         <v>25</v>
       </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
       <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
         <v>4</v>
       </c>
-      <c r="T49">
-        <v>10</v>
-      </c>
       <c r="U49">
         <v>10</v>
       </c>
@@ -9658,7 +9854,7 @@
         <v>10</v>
       </c>
       <c r="X49">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y49">
         <v>100</v>
@@ -9670,7 +9866,7 @@
         <v>100</v>
       </c>
       <c r="AB49">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC49">
         <v>0.3</v>
@@ -9682,7 +9878,7 @@
         <v>0.3</v>
       </c>
       <c r="AF49">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG49">
         <v>0.1</v>
@@ -9694,7 +9890,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ49">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK49">
         <v>42</v>
@@ -9706,7 +9902,7 @@
         <v>42</v>
       </c>
       <c r="AN49">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO49">
         <v>0.04</v>
@@ -9718,7 +9914,7 @@
         <v>0.04</v>
       </c>
       <c r="AR49">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS49">
         <v>0.05</v>
@@ -9730,7 +9926,7 @@
         <v>0.05</v>
       </c>
       <c r="AV49">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW49">
         <v>0</v>
@@ -9759,8 +9955,11 @@
       <c r="BE49">
         <v>0</v>
       </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -9786,11 +9985,11 @@
         <v>56</v>
       </c>
       <c r="H50" s="2" t="str">
-        <f>IF(AV50&gt;0,"yes","no")</f>
+        <f>IF(AW50&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="I50" s="2" t="str">
-        <f>IF(R50&gt;0,"yes","no")</f>
+        <f>IF(S50&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J50" s="2" t="s">
@@ -9800,32 +9999,33 @@
         <v>59</v>
       </c>
       <c r="L50" s="2">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="M50" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N50" s="2">
         <v>10</v>
       </c>
       <c r="O50" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P50" s="2">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q50" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R50" s="2">
         <v>25</v>
       </c>
-      <c r="R50" s="2">
+      <c r="S50" s="2">
         <v>0.25</v>
       </c>
-      <c r="S50" s="2">
+      <c r="T50" s="2">
         <v>4</v>
       </c>
-      <c r="T50" s="2">
-        <v>10</v>
-      </c>
       <c r="U50" s="2">
         <v>10</v>
       </c>
@@ -9836,7 +10036,7 @@
         <v>10</v>
       </c>
       <c r="X50" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y50" s="2">
         <v>100</v>
@@ -9848,7 +10048,7 @@
         <v>100</v>
       </c>
       <c r="AB50" s="2">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC50" s="2">
         <v>0.3</v>
@@ -9860,7 +10060,7 @@
         <v>0.3</v>
       </c>
       <c r="AF50" s="2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG50" s="2">
         <v>0.1</v>
@@ -9872,7 +10072,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ50" s="2">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK50" s="2">
         <v>42</v>
@@ -9884,7 +10084,7 @@
         <v>42</v>
       </c>
       <c r="AN50" s="2">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO50" s="2">
         <v>0.04</v>
@@ -9896,7 +10096,7 @@
         <v>0.04</v>
       </c>
       <c r="AR50" s="2">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS50" s="2">
         <v>0.05</v>
@@ -9908,7 +10108,7 @@
         <v>0.05</v>
       </c>
       <c r="AV50" s="2">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW50" s="2">
         <v>1E-3</v>
@@ -9932,13 +10132,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD50" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="BE50" s="2">
         <v>0.6</v>
       </c>
-      <c r="BE50" s="2">
+      <c r="BF50" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="51" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -9964,11 +10167,11 @@
         <v>56</v>
       </c>
       <c r="H51" s="2" t="str">
-        <f t="shared" ref="H51:H57" si="18">IF(AV51&gt;0,"yes","no")</f>
+        <f t="shared" ref="H51:H57" si="19">IF(AW51&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="I51" s="2" t="str">
-        <f>IF(R51&gt;0,"yes","no")</f>
+        <f>IF(S51&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J51" s="2" t="s">
@@ -9978,32 +10181,33 @@
         <v>59</v>
       </c>
       <c r="L51" s="2">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>0.25</v>
       </c>
       <c r="M51" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N51" s="2">
         <v>10</v>
       </c>
       <c r="O51" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P51" s="2">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R51" s="2">
         <v>25</v>
       </c>
-      <c r="R51" s="2">
+      <c r="S51" s="2">
         <v>0.25</v>
       </c>
-      <c r="S51" s="2">
+      <c r="T51" s="2">
         <v>4</v>
       </c>
-      <c r="T51" s="2">
-        <v>10</v>
-      </c>
       <c r="U51" s="2">
         <v>10</v>
       </c>
@@ -10014,7 +10218,7 @@
         <v>10</v>
       </c>
       <c r="X51" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y51" s="2">
         <v>100</v>
@@ -10026,7 +10230,7 @@
         <v>100</v>
       </c>
       <c r="AB51" s="2">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC51" s="2">
         <v>0.3</v>
@@ -10038,7 +10242,7 @@
         <v>0.3</v>
       </c>
       <c r="AF51" s="2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG51" s="2">
         <v>0.1</v>
@@ -10050,7 +10254,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ51" s="2">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK51" s="2">
         <v>42</v>
@@ -10062,7 +10266,7 @@
         <v>42</v>
       </c>
       <c r="AN51" s="2">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO51" s="2">
         <v>0.04</v>
@@ -10074,7 +10278,7 @@
         <v>0.04</v>
       </c>
       <c r="AR51" s="2">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS51" s="2">
         <v>0.05</v>
@@ -10086,7 +10290,7 @@
         <v>0.05</v>
       </c>
       <c r="AV51" s="2">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW51" s="2">
         <v>1E-3</v>
@@ -10110,13 +10314,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD51" s="2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="BE51" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BF51" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10142,11 +10349,11 @@
         <v>56</v>
       </c>
       <c r="H52" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>yes</v>
       </c>
       <c r="I52" s="1" t="str">
-        <f>IF(R52&gt;0,"yes","no")</f>
+        <f>IF(S52&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -10155,33 +10362,34 @@
       <c r="K52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L52">
-        <v>100</v>
+      <c r="L52" s="1">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
       </c>
       <c r="M52">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N52">
         <v>10</v>
       </c>
       <c r="O52">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P52">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q52">
+        <v>0.05</v>
+      </c>
+      <c r="R52">
         <v>25</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>0.25</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>4</v>
       </c>
-      <c r="T52">
-        <v>10</v>
-      </c>
       <c r="U52">
         <v>10</v>
       </c>
@@ -10192,7 +10400,7 @@
         <v>10</v>
       </c>
       <c r="X52">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y52">
         <v>100</v>
@@ -10204,7 +10412,7 @@
         <v>100</v>
       </c>
       <c r="AB52">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC52">
         <v>0.3</v>
@@ -10216,7 +10424,7 @@
         <v>0.3</v>
       </c>
       <c r="AF52">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG52">
         <v>0.1</v>
@@ -10228,7 +10436,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ52">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK52">
         <v>42</v>
@@ -10240,7 +10448,7 @@
         <v>42</v>
       </c>
       <c r="AN52">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO52">
         <v>0.04</v>
@@ -10252,7 +10460,7 @@
         <v>0.04</v>
       </c>
       <c r="AR52">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS52">
         <v>0.05</v>
@@ -10264,7 +10472,7 @@
         <v>0.05</v>
       </c>
       <c r="AV52">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW52">
         <v>1E-3</v>
@@ -10288,13 +10496,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD52">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE52">
         <v>0</v>
       </c>
+      <c r="BF52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10320,11 +10531,11 @@
         <v>56</v>
       </c>
       <c r="H53" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>yes</v>
       </c>
       <c r="I53" s="1" t="str">
-        <f t="shared" ref="I53" si="19">IF(R53&gt;0,"yes","no")</f>
+        <f t="shared" ref="I53" si="20">IF(S53&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J53" s="1" t="s">
@@ -10333,33 +10544,34 @@
       <c r="K53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L53">
-        <v>100</v>
+      <c r="L53" s="1">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
       </c>
       <c r="M53">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N53">
         <v>10</v>
       </c>
       <c r="O53">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P53">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q53">
+        <v>0.05</v>
+      </c>
+      <c r="R53">
         <v>25</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>0.25</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>4</v>
       </c>
-      <c r="T53">
-        <v>10</v>
-      </c>
       <c r="U53">
         <v>10</v>
       </c>
@@ -10370,7 +10582,7 @@
         <v>10</v>
       </c>
       <c r="X53">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y53">
         <v>100</v>
@@ -10382,7 +10594,7 @@
         <v>100</v>
       </c>
       <c r="AB53">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC53">
         <v>0.3</v>
@@ -10394,7 +10606,7 @@
         <v>0.3</v>
       </c>
       <c r="AF53">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG53">
         <v>0.1</v>
@@ -10406,7 +10618,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ53">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK53">
         <v>42</v>
@@ -10418,7 +10630,7 @@
         <v>42</v>
       </c>
       <c r="AN53">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO53">
         <v>0.04</v>
@@ -10430,7 +10642,7 @@
         <v>0.04</v>
       </c>
       <c r="AR53">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS53">
         <v>0.05</v>
@@ -10442,7 +10654,7 @@
         <v>0.05</v>
       </c>
       <c r="AV53">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW53">
         <v>1E-3</v>
@@ -10466,13 +10678,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD53">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE53">
         <v>0</v>
       </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -10498,11 +10713,11 @@
         <v>56</v>
       </c>
       <c r="H54" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>no</v>
       </c>
       <c r="I54" s="2" t="str">
-        <f>IF(R54&gt;0,"yes","no")</f>
+        <f>IF(S54&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J54" s="2" t="s">
@@ -10512,32 +10727,33 @@
         <v>59</v>
       </c>
       <c r="L54" s="2">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="M54" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N54" s="2">
         <v>10</v>
       </c>
       <c r="O54" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P54" s="2">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q54" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R54" s="2">
         <v>25</v>
       </c>
-      <c r="R54" s="2">
+      <c r="S54" s="2">
         <v>0.25</v>
       </c>
-      <c r="S54" s="2">
+      <c r="T54" s="2">
         <v>4</v>
       </c>
-      <c r="T54" s="2">
-        <v>10</v>
-      </c>
       <c r="U54" s="2">
         <v>10</v>
       </c>
@@ -10548,7 +10764,7 @@
         <v>10</v>
       </c>
       <c r="X54" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y54" s="2">
         <v>100</v>
@@ -10560,7 +10776,7 @@
         <v>100</v>
       </c>
       <c r="AB54" s="2">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC54" s="2">
         <v>0.3</v>
@@ -10572,7 +10788,7 @@
         <v>0.3</v>
       </c>
       <c r="AF54" s="2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG54" s="2">
         <v>0.1</v>
@@ -10584,7 +10800,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ54" s="2">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK54" s="2">
         <v>42</v>
@@ -10596,7 +10812,7 @@
         <v>42</v>
       </c>
       <c r="AN54" s="2">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO54" s="2">
         <v>0.04</v>
@@ -10608,7 +10824,7 @@
         <v>0.04</v>
       </c>
       <c r="AR54" s="2">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS54" s="2">
         <v>0.05</v>
@@ -10620,7 +10836,7 @@
         <v>0.05</v>
       </c>
       <c r="AV54" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW54" s="2">
         <v>0</v>
@@ -10644,13 +10860,16 @@
         <v>0</v>
       </c>
       <c r="BD54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE54" s="2">
         <v>0.6</v>
       </c>
-      <c r="BE54" s="2">
+      <c r="BF54" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="55" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -10676,11 +10895,11 @@
         <v>56</v>
       </c>
       <c r="H55" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>no</v>
       </c>
       <c r="I55" s="2" t="str">
-        <f>IF(R55&gt;0,"yes","no")</f>
+        <f>IF(S55&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J55" s="2" t="s">
@@ -10690,32 +10909,33 @@
         <v>59</v>
       </c>
       <c r="L55" s="2">
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>0.25</v>
       </c>
       <c r="M55" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N55" s="2">
         <v>10</v>
       </c>
       <c r="O55" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P55" s="2">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q55" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R55" s="2">
         <v>25</v>
       </c>
-      <c r="R55" s="2">
+      <c r="S55" s="2">
         <v>0.25</v>
       </c>
-      <c r="S55" s="2">
+      <c r="T55" s="2">
         <v>4</v>
       </c>
-      <c r="T55" s="2">
-        <v>10</v>
-      </c>
       <c r="U55" s="2">
         <v>10</v>
       </c>
@@ -10726,7 +10946,7 @@
         <v>10</v>
       </c>
       <c r="X55" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y55" s="2">
         <v>100</v>
@@ -10738,7 +10958,7 @@
         <v>100</v>
       </c>
       <c r="AB55" s="2">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC55" s="2">
         <v>0.3</v>
@@ -10750,7 +10970,7 @@
         <v>0.3</v>
       </c>
       <c r="AF55" s="2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG55" s="2">
         <v>0.1</v>
@@ -10762,7 +10982,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ55" s="2">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK55" s="2">
         <v>42</v>
@@ -10774,7 +10994,7 @@
         <v>42</v>
       </c>
       <c r="AN55" s="2">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO55" s="2">
         <v>0.04</v>
@@ -10786,7 +11006,7 @@
         <v>0.04</v>
       </c>
       <c r="AR55" s="2">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS55" s="2">
         <v>0.05</v>
@@ -10798,7 +11018,7 @@
         <v>0.05</v>
       </c>
       <c r="AV55" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW55" s="2">
         <v>0</v>
@@ -10822,13 +11042,16 @@
         <v>0</v>
       </c>
       <c r="BD55" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BF55" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10854,11 +11077,11 @@
         <v>56</v>
       </c>
       <c r="H56" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>no</v>
       </c>
       <c r="I56" s="1" t="str">
-        <f>IF(R56&gt;0,"yes","no")</f>
+        <f>IF(S56&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -10867,33 +11090,34 @@
       <c r="K56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L56">
-        <v>100</v>
+      <c r="L56" s="1">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
       </c>
       <c r="M56">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N56">
         <v>10</v>
       </c>
       <c r="O56">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P56">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q56">
+        <v>0.05</v>
+      </c>
+      <c r="R56">
         <v>25</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>0.25</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>4</v>
       </c>
-      <c r="T56">
-        <v>10</v>
-      </c>
       <c r="U56">
         <v>10</v>
       </c>
@@ -10904,7 +11128,7 @@
         <v>10</v>
       </c>
       <c r="X56">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y56">
         <v>100</v>
@@ -10916,7 +11140,7 @@
         <v>100</v>
       </c>
       <c r="AB56">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC56">
         <v>0.3</v>
@@ -10928,7 +11152,7 @@
         <v>0.3</v>
       </c>
       <c r="AF56">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG56">
         <v>0.1</v>
@@ -10940,7 +11164,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ56">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK56">
         <v>42</v>
@@ -10952,7 +11176,7 @@
         <v>42</v>
       </c>
       <c r="AN56">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO56">
         <v>0.04</v>
@@ -10964,7 +11188,7 @@
         <v>0.04</v>
       </c>
       <c r="AR56">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS56">
         <v>0.05</v>
@@ -10976,7 +11200,7 @@
         <v>0.05</v>
       </c>
       <c r="AV56">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW56">
         <v>0</v>
@@ -11005,8 +11229,11 @@
       <c r="BE56">
         <v>0</v>
       </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11032,11 +11259,11 @@
         <v>56</v>
       </c>
       <c r="H57" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>no</v>
       </c>
       <c r="I57" s="1" t="str">
-        <f t="shared" ref="I57" si="20">IF(R57&gt;0,"yes","no")</f>
+        <f t="shared" ref="I57" si="21">IF(S57&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="J57" s="1" t="s">
@@ -11045,33 +11272,34 @@
       <c r="K57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L57">
-        <v>100</v>
+      <c r="L57" s="1">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
       </c>
       <c r="M57">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N57">
         <v>10</v>
       </c>
       <c r="O57">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P57">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q57">
+        <v>0.05</v>
+      </c>
+      <c r="R57">
         <v>25</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>0.25</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>4</v>
       </c>
-      <c r="T57">
-        <v>10</v>
-      </c>
       <c r="U57">
         <v>10</v>
       </c>
@@ -11082,7 +11310,7 @@
         <v>10</v>
       </c>
       <c r="X57">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y57">
         <v>100</v>
@@ -11094,7 +11322,7 @@
         <v>100</v>
       </c>
       <c r="AB57">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC57">
         <v>0.3</v>
@@ -11106,7 +11334,7 @@
         <v>0.3</v>
       </c>
       <c r="AF57">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG57">
         <v>0.1</v>
@@ -11118,7 +11346,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ57">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK57">
         <v>42</v>
@@ -11130,7 +11358,7 @@
         <v>42</v>
       </c>
       <c r="AN57">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO57">
         <v>0.04</v>
@@ -11142,7 +11370,7 @@
         <v>0.04</v>
       </c>
       <c r="AR57">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS57">
         <v>0.05</v>
@@ -11154,7 +11382,7 @@
         <v>0.05</v>
       </c>
       <c r="AV57">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW57">
         <v>0</v>
@@ -11183,8 +11411,11 @@
       <c r="BE57">
         <v>0</v>
       </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -11210,11 +11441,11 @@
         <v>56</v>
       </c>
       <c r="H58" s="1" t="str">
-        <f>IF(AV58&gt;0,"yes","no")</f>
+        <f>IF(AW58&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="I58" s="1" t="str">
-        <f>IF(R58&gt;0,"yes","no")</f>
+        <f>IF(S58&gt;0,"yes","no")</f>
         <v>no</v>
       </c>
       <c r="J58" s="1" t="s">
@@ -11223,33 +11454,34 @@
       <c r="K58" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L58">
-        <v>100</v>
+      <c r="L58" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N58">
         <v>10</v>
       </c>
       <c r="O58">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P58">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q58">
+        <v>0.05</v>
+      </c>
+      <c r="R58">
         <v>25</v>
       </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
       <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
         <v>4</v>
       </c>
-      <c r="T58">
-        <v>10</v>
-      </c>
       <c r="U58">
         <v>10</v>
       </c>
@@ -11260,7 +11492,7 @@
         <v>10</v>
       </c>
       <c r="X58">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y58">
         <v>100</v>
@@ -11272,7 +11504,7 @@
         <v>100</v>
       </c>
       <c r="AB58">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC58">
         <v>0.3</v>
@@ -11284,7 +11516,7 @@
         <v>0.3</v>
       </c>
       <c r="AF58">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG58">
         <v>0.1</v>
@@ -11296,7 +11528,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ58">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK58">
         <v>42</v>
@@ -11308,7 +11540,7 @@
         <v>42</v>
       </c>
       <c r="AN58">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO58">
         <v>0.04</v>
@@ -11320,7 +11552,7 @@
         <v>0.04</v>
       </c>
       <c r="AR58">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS58">
         <v>0.05</v>
@@ -11332,7 +11564,7 @@
         <v>0.05</v>
       </c>
       <c r="AV58">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW58">
         <v>1E-3</v>
@@ -11356,13 +11588,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD58">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE58">
         <v>0</v>
       </c>
+      <c r="BF58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11388,11 +11623,11 @@
         <v>56</v>
       </c>
       <c r="H59" s="1" t="str">
-        <f t="shared" ref="H59:H65" si="21">IF(AV59&gt;0,"yes","no")</f>
+        <f t="shared" ref="H59:H65" si="22">IF(AW59&gt;0,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="I59" s="1" t="str">
-        <f t="shared" ref="I59:I65" si="22">IF(R59&gt;0,"yes","no")</f>
+        <f t="shared" ref="I59:I65" si="23">IF(S59&gt;0,"yes","no")</f>
         <v>no</v>
       </c>
       <c r="J59" s="1" t="s">
@@ -11401,33 +11636,34 @@
       <c r="K59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L59">
-        <v>100</v>
+      <c r="L59" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
       </c>
       <c r="M59">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N59">
         <v>10</v>
       </c>
       <c r="O59">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P59">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q59">
+        <v>0.05</v>
+      </c>
+      <c r="R59">
         <v>25</v>
       </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
       <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
         <v>4</v>
       </c>
-      <c r="T59">
-        <v>10</v>
-      </c>
       <c r="U59">
         <v>10</v>
       </c>
@@ -11438,7 +11674,7 @@
         <v>10</v>
       </c>
       <c r="X59">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y59">
         <v>100</v>
@@ -11450,7 +11686,7 @@
         <v>100</v>
       </c>
       <c r="AB59">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC59">
         <v>0.3</v>
@@ -11462,7 +11698,7 @@
         <v>0.3</v>
       </c>
       <c r="AF59">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG59">
         <v>0.1</v>
@@ -11474,7 +11710,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ59">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK59">
         <v>42</v>
@@ -11486,7 +11722,7 @@
         <v>42</v>
       </c>
       <c r="AN59">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO59">
         <v>0.04</v>
@@ -11498,7 +11734,7 @@
         <v>0.04</v>
       </c>
       <c r="AR59">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS59">
         <v>0.05</v>
@@ -11510,7 +11746,7 @@
         <v>0.05</v>
       </c>
       <c r="AV59">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW59">
         <v>1E-3</v>
@@ -11534,13 +11770,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD59">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE59">
         <v>0</v>
       </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11566,11 +11805,11 @@
         <v>56</v>
       </c>
       <c r="H60" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>yes</v>
       </c>
       <c r="I60" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>no</v>
       </c>
       <c r="J60" s="1" t="s">
@@ -11579,33 +11818,34 @@
       <c r="K60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L60">
-        <v>100</v>
+      <c r="L60" s="1">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
       </c>
       <c r="M60">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N60">
         <v>10</v>
       </c>
       <c r="O60">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P60">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q60">
+        <v>0.05</v>
+      </c>
+      <c r="R60">
         <v>25</v>
       </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
       <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
         <v>4</v>
       </c>
-      <c r="T60">
-        <v>10</v>
-      </c>
       <c r="U60">
         <v>10</v>
       </c>
@@ -11616,7 +11856,7 @@
         <v>10</v>
       </c>
       <c r="X60">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y60">
         <v>100</v>
@@ -11628,7 +11868,7 @@
         <v>100</v>
       </c>
       <c r="AB60">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC60">
         <v>0.3</v>
@@ -11640,7 +11880,7 @@
         <v>0.3</v>
       </c>
       <c r="AF60">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG60">
         <v>0.1</v>
@@ -11652,7 +11892,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ60">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK60">
         <v>42</v>
@@ -11664,7 +11904,7 @@
         <v>42</v>
       </c>
       <c r="AN60">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO60">
         <v>0.04</v>
@@ -11676,7 +11916,7 @@
         <v>0.04</v>
       </c>
       <c r="AR60">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS60">
         <v>0.05</v>
@@ -11688,7 +11928,7 @@
         <v>0.05</v>
       </c>
       <c r="AV60">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW60">
         <v>1E-3</v>
@@ -11712,13 +11952,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD60">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE60">
         <v>0</v>
       </c>
+      <c r="BF60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -11744,11 +11987,11 @@
         <v>56</v>
       </c>
       <c r="H61" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>yes</v>
       </c>
       <c r="I61" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>no</v>
       </c>
       <c r="J61" s="1" t="s">
@@ -11757,33 +12000,34 @@
       <c r="K61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L61">
-        <v>100</v>
+      <c r="L61" s="1">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
       </c>
       <c r="M61">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N61">
         <v>10</v>
       </c>
       <c r="O61">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P61">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q61">
+        <v>0.05</v>
+      </c>
+      <c r="R61">
         <v>25</v>
       </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
       <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
         <v>4</v>
       </c>
-      <c r="T61">
-        <v>10</v>
-      </c>
       <c r="U61">
         <v>10</v>
       </c>
@@ -11794,7 +12038,7 @@
         <v>10</v>
       </c>
       <c r="X61">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y61">
         <v>100</v>
@@ -11806,7 +12050,7 @@
         <v>100</v>
       </c>
       <c r="AB61">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC61">
         <v>0.3</v>
@@ -11818,7 +12062,7 @@
         <v>0.3</v>
       </c>
       <c r="AF61">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG61">
         <v>0.1</v>
@@ -11830,7 +12074,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ61">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK61">
         <v>42</v>
@@ -11842,7 +12086,7 @@
         <v>42</v>
       </c>
       <c r="AN61">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO61">
         <v>0.04</v>
@@ -11854,7 +12098,7 @@
         <v>0.04</v>
       </c>
       <c r="AR61">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS61">
         <v>0.05</v>
@@ -11866,7 +12110,7 @@
         <v>0.05</v>
       </c>
       <c r="AV61">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="AW61">
         <v>1E-3</v>
@@ -11890,13 +12134,16 @@
         <v>1E-3</v>
       </c>
       <c r="BD61">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE61">
         <v>0</v>
       </c>
+      <c r="BF61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11922,46 +12169,47 @@
         <v>56</v>
       </c>
       <c r="H62" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>no</v>
-      </c>
-      <c r="I62" s="1" t="str">
         <f t="shared" si="22"/>
         <v>no</v>
       </c>
+      <c r="I62" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>no</v>
+      </c>
       <c r="J62" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L62">
-        <v>100</v>
+      <c r="L62" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N62">
         <v>10</v>
       </c>
       <c r="O62">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P62">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q62">
+        <v>0.05</v>
+      </c>
+      <c r="R62">
         <v>25</v>
       </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
       <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
         <v>4</v>
       </c>
-      <c r="T62">
-        <v>10</v>
-      </c>
       <c r="U62">
         <v>10</v>
       </c>
@@ -11972,7 +12220,7 @@
         <v>10</v>
       </c>
       <c r="X62">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y62">
         <v>100</v>
@@ -11984,7 +12232,7 @@
         <v>100</v>
       </c>
       <c r="AB62">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC62">
         <v>0.3</v>
@@ -11996,7 +12244,7 @@
         <v>0.3</v>
       </c>
       <c r="AF62">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG62">
         <v>0.1</v>
@@ -12008,7 +12256,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ62">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK62">
         <v>42</v>
@@ -12020,7 +12268,7 @@
         <v>42</v>
       </c>
       <c r="AN62">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO62">
         <v>0.04</v>
@@ -12032,7 +12280,7 @@
         <v>0.04</v>
       </c>
       <c r="AR62">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS62">
         <v>0.05</v>
@@ -12044,7 +12292,7 @@
         <v>0.05</v>
       </c>
       <c r="AV62">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW62">
         <v>0</v>
@@ -12073,8 +12321,11 @@
       <c r="BE62">
         <v>0</v>
       </c>
+      <c r="BF62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12100,46 +12351,47 @@
         <v>56</v>
       </c>
       <c r="H63" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>no</v>
-      </c>
-      <c r="I63" s="1" t="str">
         <f t="shared" si="22"/>
         <v>no</v>
       </c>
+      <c r="I63" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>no</v>
+      </c>
       <c r="J63" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L63">
-        <v>100</v>
+      <c r="L63" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
       </c>
       <c r="M63">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N63">
         <v>10</v>
       </c>
       <c r="O63">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P63">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q63">
+        <v>0.05</v>
+      </c>
+      <c r="R63">
         <v>25</v>
       </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
       <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
         <v>4</v>
       </c>
-      <c r="T63">
-        <v>10</v>
-      </c>
       <c r="U63">
         <v>10</v>
       </c>
@@ -12150,7 +12402,7 @@
         <v>10</v>
       </c>
       <c r="X63">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y63">
         <v>100</v>
@@ -12162,7 +12414,7 @@
         <v>100</v>
       </c>
       <c r="AB63">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC63">
         <v>0.3</v>
@@ -12174,7 +12426,7 @@
         <v>0.3</v>
       </c>
       <c r="AF63">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG63">
         <v>0.1</v>
@@ -12186,7 +12438,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ63">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK63">
         <v>42</v>
@@ -12198,7 +12450,7 @@
         <v>42</v>
       </c>
       <c r="AN63">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO63">
         <v>0.04</v>
@@ -12210,7 +12462,7 @@
         <v>0.04</v>
       </c>
       <c r="AR63">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS63">
         <v>0.05</v>
@@ -12222,7 +12474,7 @@
         <v>0.05</v>
       </c>
       <c r="AV63">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW63">
         <v>0</v>
@@ -12251,8 +12503,11 @@
       <c r="BE63">
         <v>0</v>
       </c>
+      <c r="BF63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -12278,46 +12533,47 @@
         <v>56</v>
       </c>
       <c r="H64" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>no</v>
-      </c>
-      <c r="I64" s="1" t="str">
         <f t="shared" si="22"/>
         <v>no</v>
       </c>
+      <c r="I64" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>no</v>
+      </c>
       <c r="J64" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L64">
-        <v>100</v>
+      <c r="L64" s="1">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
       </c>
       <c r="M64">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N64">
         <v>10</v>
       </c>
       <c r="O64">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P64">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q64">
+        <v>0.05</v>
+      </c>
+      <c r="R64">
         <v>25</v>
       </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
       <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
         <v>4</v>
       </c>
-      <c r="T64">
-        <v>10</v>
-      </c>
       <c r="U64">
         <v>10</v>
       </c>
@@ -12328,7 +12584,7 @@
         <v>10</v>
       </c>
       <c r="X64">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y64">
         <v>100</v>
@@ -12340,7 +12596,7 @@
         <v>100</v>
       </c>
       <c r="AB64">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC64">
         <v>0.3</v>
@@ -12352,7 +12608,7 @@
         <v>0.3</v>
       </c>
       <c r="AF64">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG64">
         <v>0.1</v>
@@ -12364,7 +12620,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ64">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK64">
         <v>42</v>
@@ -12376,7 +12632,7 @@
         <v>42</v>
       </c>
       <c r="AN64">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO64">
         <v>0.04</v>
@@ -12388,7 +12644,7 @@
         <v>0.04</v>
       </c>
       <c r="AR64">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS64">
         <v>0.05</v>
@@ -12400,7 +12656,7 @@
         <v>0.05</v>
       </c>
       <c r="AV64">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW64">
         <v>0</v>
@@ -12429,8 +12685,11 @@
       <c r="BE64">
         <v>0</v>
       </c>
+      <c r="BF64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -12456,46 +12715,47 @@
         <v>56</v>
       </c>
       <c r="H65" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>no</v>
-      </c>
-      <c r="I65" s="1" t="str">
         <f t="shared" si="22"/>
         <v>no</v>
       </c>
+      <c r="I65" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>no</v>
+      </c>
       <c r="J65" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L65">
-        <v>100</v>
+      <c r="L65" s="1">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
       </c>
       <c r="M65">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N65">
         <v>10</v>
       </c>
       <c r="O65">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P65">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="Q65">
+        <v>0.05</v>
+      </c>
+      <c r="R65">
         <v>25</v>
       </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
       <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
         <v>4</v>
       </c>
-      <c r="T65">
-        <v>10</v>
-      </c>
       <c r="U65">
         <v>10</v>
       </c>
@@ -12506,7 +12766,7 @@
         <v>10</v>
       </c>
       <c r="X65">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y65">
         <v>100</v>
@@ -12518,7 +12778,7 @@
         <v>100</v>
       </c>
       <c r="AB65">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="AC65">
         <v>0.3</v>
@@ -12530,7 +12790,7 @@
         <v>0.3</v>
       </c>
       <c r="AF65">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AG65">
         <v>0.1</v>
@@ -12542,7 +12802,7 @@
         <v>0.1</v>
       </c>
       <c r="AJ65">
-        <v>42</v>
+        <v>0.1</v>
       </c>
       <c r="AK65">
         <v>42</v>
@@ -12554,7 +12814,7 @@
         <v>42</v>
       </c>
       <c r="AN65">
-        <v>0.04</v>
+        <v>42</v>
       </c>
       <c r="AO65">
         <v>0.04</v>
@@ -12566,7 +12826,7 @@
         <v>0.04</v>
       </c>
       <c r="AR65">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AS65">
         <v>0.05</v>
@@ -12578,7 +12838,7 @@
         <v>0.05</v>
       </c>
       <c r="AV65">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AW65">
         <v>0</v>
@@ -12605,6 +12865,9 @@
         <v>0</v>
       </c>
       <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
         <v>0</v>
       </c>
     </row>
